--- a/Source/Code/Correlation.xlsx
+++ b/Source/Code/Correlation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP42"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,42 +601,32 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
           <t>53</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>67</t>
         </is>
       </c>
     </row>
@@ -650,124 +640,118 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2538969628648554</v>
+        <v>-0.2697921089526344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01662973727251939</v>
+        <v>-0.002963644571546689</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7880263883300525</v>
+        <v>0.9536330556672373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3004981376640725</v>
+        <v>0.418032271234828</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4754635787907301</v>
+        <v>0.5358855508073385</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6859223577051911</v>
+        <v>0.7558515695635151</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4388344689459334</v>
+        <v>0.4689125106443322</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3440554963802365</v>
+        <v>0.3926722714169593</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5934194091227138</v>
+        <v>0.6142738875789611</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8455077538466251</v>
+        <v>0.8544645471572188</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3942042442431152</v>
+        <v>0.412290043126694</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5240501605342381</v>
+        <v>0.4929710088891477</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6938472146622033</v>
+        <v>0.7324592634276749</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7055087326391669</v>
+        <v>0.7015737000108371</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6571233697030316</v>
+        <v>0.4630337957057131</v>
       </c>
       <c r="R2" t="n">
-        <v>0.636944685119385</v>
+        <v>0.5246267577725164</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6932958342289137</v>
+        <v>0.6600306001578706</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2826257430823538</v>
+        <v>0.176745260641387</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1318321743165112</v>
+        <v>0.111168514376606</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5296846695153899</v>
+        <v>0.6617258858428446</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4390643160764011</v>
+        <v>0.4624470444821282</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7866980898557849</v>
+        <v>0.8548228088072569</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4547112553827656</v>
+        <v>0.4574790858914168</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6432229071112442</v>
+        <v>0.6159643432951335</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3659874363243239</v>
+        <v>0.3666717723754295</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.4169532801679524</v>
+        <v>0.3970124898407984</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5172382796666091</v>
+        <v>0.5196532607791682</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5914857469457014</v>
+        <v>0.595233688813282</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4775228496511</v>
+        <v>0.5323021370701455</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.3439133026820231</v>
+        <v>0.331462157057006</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.3871121281918561</v>
+        <v>0.2964163457379713</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2670280659839208</v>
+        <v>0.5134222335268178</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.2625479622744967</v>
+        <v>0.06603877406402733</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.09491478229863558</v>
+        <v>0.5898059231866222</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6336240765014683</v>
+        <v>0.1420054396038568</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1607706905418531</v>
+        <v>0.1741848120114933</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.2356331366861002</v>
+        <v>0.4444061057133261</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.3342397864347956</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.1895525589632991</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.04927833655730189</v>
+        <v>0.2276136865154676</v>
       </c>
     </row>
     <row r="3">
@@ -777,127 +761,121 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2538969628648554</v>
+        <v>-0.2697921089526344</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02415334762888371</v>
+        <v>0.02718111403240793</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2125053300598113</v>
+        <v>-0.2518253396493941</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05590035101467204</v>
+        <v>-0.09992547872780515</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2059660089476903</v>
+        <v>-0.2269361758150196</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1863638958258941</v>
+        <v>-0.218782859670069</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1271052483366456</v>
+        <v>-0.154675244352393</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1242892267262931</v>
+        <v>-0.1601628929922178</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3176123663309033</v>
+        <v>-0.3496836240686146</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.198789118288497</v>
+        <v>-0.2128983438556414</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.2584283625680917</v>
+        <v>-0.2860614462667506</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1536096816471355</v>
+        <v>-0.1483633784071894</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2128795121861319</v>
+        <v>-0.2516595187761523</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1949109723514305</v>
+        <v>-0.1861101375217671</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1839712857392423</v>
+        <v>-0.147621431251329</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1927794799846461</v>
+        <v>-0.1643946970179677</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1621054779378489</v>
+        <v>-0.1807265418953721</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.09450283682479244</v>
+        <v>-0.1060403929583493</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.06912180425606398</v>
+        <v>-0.05007062492065389</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.1626987805706143</v>
+        <v>-0.1948034004649211</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.1393781679914015</v>
+        <v>-0.1532092034365886</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.2030637049154375</v>
+        <v>-0.2009882986165347</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.2267123581786418</v>
+        <v>-0.2149842563895766</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.1902385352608358</v>
+        <v>-0.2045811181415646</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.218906477209573</v>
+        <v>-0.2579180620672377</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.3181439547842668</v>
+        <v>-0.3188051256601572</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.2443652624926781</v>
+        <v>-0.2776359301218544</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.1306386917044638</v>
+        <v>-0.1345164702364574</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.1191422940824942</v>
+        <v>-0.132013393927053</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.09190730810511691</v>
+        <v>-0.05616116447448115</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.1136608169840752</v>
+        <v>-0.09633449059358661</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.09784618222637889</v>
+        <v>-0.1826118931658109</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.0721203663349238</v>
+        <v>-0.02844063346631198</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.03282307697499023</v>
+        <v>-0.2376387457761696</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.2402177952778971</v>
+        <v>-0.0955793509386092</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.06926579416599275</v>
+        <v>-0.0595215911230989</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.1077299549166028</v>
+        <v>-0.1709225569744989</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.1090124109907939</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>-0.05085899607033193</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>-0.008647317581658567</v>
+        <v>-0.04895286239536816</v>
       </c>
     </row>
     <row r="4">
@@ -907,127 +885,121 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01662973727251939</v>
+        <v>-0.002963644571546689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02415334762888371</v>
+        <v>0.02718111403240793</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01358332834584018</v>
+        <v>-0.007624744953506101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04054811952520562</v>
+        <v>0.003090774778553826</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01135503485223895</v>
+        <v>-0.03433420693954008</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01081936921804029</v>
+        <v>-0.02519343577364333</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07327840883326987</v>
+        <v>-0.05930147923251135</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01274895141415266</v>
+        <v>0.01866801386170784</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01084304429300573</v>
+        <v>-0.01382736077321659</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01794176940042996</v>
+        <v>0.002220710065093882</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.03689348122665071</v>
+        <v>0.000381909472862968</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.00598616148384736</v>
+        <v>-0.04938814695824761</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.005720220732902698</v>
+        <v>-0.02498837529785657</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.01797946885093214</v>
+        <v>-0.0429276279189901</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.03455941108344546</v>
+        <v>-0.0262951560087721</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05112762655901797</v>
+        <v>0.02540456587321663</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.04133257473985212</v>
+        <v>-0.0664122496501343</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.009347789357344451</v>
+        <v>0.02483872704907448</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.04085707138078214</v>
+        <v>-0.006284874038241916</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.0127079777777227</v>
+        <v>0.00238781033071572</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002036692607185681</v>
+        <v>0.002517831742428625</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.04083021421126998</v>
+        <v>-0.05554738052980068</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.009442941844384501</v>
+        <v>-0.006405342917244964</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.01666742056541509</v>
+        <v>-0.04693613273217195</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0005030411861753684</v>
+        <v>0.02624819487314735</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.02572950999339552</v>
+        <v>-0.02808701411620781</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.009950916446212198</v>
+        <v>0.03987276030687099</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.03108370149701041</v>
+        <v>-0.0589253681045987</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.08458564139786783</v>
+        <v>-0.09808585799195646</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.06750146825815444</v>
+        <v>-0.09400226932307439</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.004281164580124034</v>
+        <v>-0.007399698122016132</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.01673451791153466</v>
+        <v>-0.02796018478931569</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.03750523699287009</v>
+        <v>-0.05090021371985585</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.008908360559891372</v>
+        <v>-0.03048181891804735</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.01576922191211386</v>
+        <v>0.02291312971617071</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.007650729232497089</v>
+        <v>0.04706202457207712</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.03723075235751651</v>
+        <v>0.02888401927358324</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01365559585191875</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>-0.008187088472309275</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>-0.01300196921527161</v>
+        <v>0.003313341897291761</v>
       </c>
     </row>
     <row r="5">
@@ -1037,127 +1009,121 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7880263883300525</v>
+        <v>0.9536330556672373</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2125053300598113</v>
+        <v>-0.2518253396493941</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01358332834584018</v>
+        <v>-0.007624744953506101</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1108908561537547</v>
+        <v>0.3267667846744056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4318247095643508</v>
+        <v>0.5401797853369145</v>
       </c>
       <c r="H5" t="n">
-        <v>0.641080687202373</v>
+        <v>0.7725555764104418</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4095070053995741</v>
+        <v>0.4687780154344857</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2871965742865827</v>
+        <v>0.38305622448429</v>
       </c>
       <c r="K5" t="n">
-        <v>0.525852469359407</v>
+        <v>0.615463655824976</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7454689970696442</v>
+        <v>0.8711964101458599</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3537806726942389</v>
+        <v>0.4117404038231813</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4774556639431604</v>
+        <v>0.4803281418592656</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6560902983991248</v>
+        <v>0.7454439294256463</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6591964430147168</v>
+        <v>0.6966905497889457</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6170319999521047</v>
+        <v>0.4513898921219432</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5384434905184597</v>
+        <v>0.5452240963192023</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5990145589621569</v>
+        <v>0.6291273761074164</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2755735258443152</v>
+        <v>0.1849001743334124</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1252528296522661</v>
+        <v>0.1171227261601032</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5173862713442015</v>
+        <v>0.6818854976196435</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3988689251465236</v>
+        <v>0.4569028609634023</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8387446252565028</v>
+        <v>0.8739327727237201</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.368518595441537</v>
+        <v>0.4346878056224779</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6229307361358223</v>
+        <v>0.6335521549158146</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3280402090902928</v>
+        <v>0.3515226319402374</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3662662078996963</v>
+        <v>0.3979140092481513</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4367311463119101</v>
+        <v>0.5009726062820401</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4917219076384466</v>
+        <v>0.5457801827182329</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.4872189255834103</v>
+        <v>0.5500212910535278</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3757230188806523</v>
+        <v>0.350654571086417</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3501523121612026</v>
+        <v>0.2888172129106112</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.2180252045686286</v>
+        <v>0.5127254518974536</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.2300629119043807</v>
+        <v>0.06413352043247306</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.08470165117510518</v>
+        <v>0.5973863848063847</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5730042566053775</v>
+        <v>0.1004994909608842</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1523531428722149</v>
+        <v>0.1610976763735534</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1666995521835335</v>
+        <v>0.4496200144334027</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.2879472771429398</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.1837775945362656</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.01397766193407266</v>
+        <v>0.2182720823996992</v>
       </c>
     </row>
     <row r="6">
@@ -1167,127 +1133,121 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3004981376640725</v>
+        <v>0.418032271234828</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.05590035101467204</v>
+        <v>-0.09992547872780515</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04054811952520562</v>
+        <v>0.003090774778553826</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1108908561537547</v>
+        <v>0.3267667846744056</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1171584021373357</v>
+        <v>0.2221457130530653</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1467656901774004</v>
+        <v>0.2658126715406564</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07274038499225066</v>
+        <v>0.1339763252554673</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08834227089509623</v>
+        <v>0.2054191576891211</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1475210298351373</v>
+        <v>0.2902254767394777</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2393864068766547</v>
+        <v>0.3283142533641011</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1256261889499267</v>
+        <v>0.2406756687068957</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08968997072104987</v>
+        <v>0.1881810542744551</v>
       </c>
       <c r="O6" t="n">
-        <v>0.154879750197445</v>
+        <v>0.2719724261800429</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1111121013219039</v>
+        <v>0.2705305415958644</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1203438076335114</v>
+        <v>0.161220448707477</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1914867473118539</v>
+        <v>0.2040155761451242</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1344620740875273</v>
+        <v>0.2291584249372504</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05933374187197744</v>
+        <v>0.1086077239148785</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03187986930559501</v>
+        <v>0.06027986860778706</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1112368099463734</v>
+        <v>0.2475922490340083</v>
       </c>
       <c r="W6" t="n">
-        <v>0.070523509320382</v>
+        <v>0.1505656091364428</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1363834060360397</v>
+        <v>0.2856643537361342</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.07359495987493048</v>
+        <v>0.1802234641669323</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1206649487487063</v>
+        <v>0.2678990392618801</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1264697120579365</v>
+        <v>0.2649409460664649</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.09890058625496408</v>
+        <v>0.1941565763428794</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1866501457844324</v>
+        <v>0.3335614466089467</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1328131108163425</v>
+        <v>0.2435470409434932</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06987209400503688</v>
+        <v>0.17097318313185</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03449868169874706</v>
+        <v>0.1195387614919809</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.07016691551035248</v>
+        <v>0.1339646923067738</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.08151816572263244</v>
+        <v>0.1903445909004318</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.05280453453498042</v>
+        <v>0.008992962481485895</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.003413379671977896</v>
+        <v>0.2515246763475599</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1695609876999908</v>
+        <v>0.05034680164414588</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.001018576620152218</v>
+        <v>0.1049611871484414</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.1001178260034648</v>
+        <v>0.1107752245149972</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.04978423797971553</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.01723376211082821</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>-0.003409740780517573</v>
+        <v>0.041823499388154</v>
       </c>
     </row>
     <row r="7">
@@ -1297,127 +1257,121 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4754635787907301</v>
+        <v>0.5358855508073385</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2059660089476903</v>
+        <v>-0.2269361758150196</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01135503485223895</v>
+        <v>-0.03433420693954008</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4318247095643508</v>
+        <v>0.5401797853369145</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1171584021373357</v>
+        <v>0.2221457130530653</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3532570899209783</v>
+        <v>0.4458490458563208</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2442413811568304</v>
+        <v>0.2978058726407947</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1981261706662515</v>
+        <v>0.259176523660636</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4277597855501122</v>
+        <v>0.4698979893608591</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4289922789907142</v>
+        <v>0.4761300821865687</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3404308861165898</v>
+        <v>0.4072947170184292</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3018683422807509</v>
+        <v>0.3302194943933573</v>
       </c>
       <c r="O7" t="n">
-        <v>0.412208649423273</v>
+        <v>0.5078728471785463</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3657850024366328</v>
+        <v>0.3944499233589653</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3504395943989815</v>
+        <v>0.246851665572353</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3752636088397443</v>
+        <v>0.2936998981971951</v>
       </c>
       <c r="S7" t="n">
-        <v>0.333860469099079</v>
+        <v>0.4030275677751399</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1571814675467056</v>
+        <v>0.1104500928736119</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1277223378871413</v>
+        <v>0.1847672559213863</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3139022800493913</v>
+        <v>0.4177074829567623</v>
       </c>
       <c r="W7" t="n">
-        <v>0.216667135080587</v>
+        <v>0.2702341763051548</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4092033973188703</v>
+        <v>0.4790424491620937</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2206022091223085</v>
+        <v>0.2802255110669098</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3551213865104751</v>
+        <v>0.3438101125141702</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2825652328942032</v>
+        <v>0.3042366278414308</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3527242445615826</v>
+        <v>0.3758232753246896</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3546491742298924</v>
+        <v>0.3511019614613671</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2489520084745349</v>
+        <v>0.3176742172099784</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2542221449635534</v>
+        <v>0.3573443391117359</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1844765383748562</v>
+        <v>0.1745615199669257</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2267522630117622</v>
+        <v>0.3038486896874702</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1569891362608178</v>
+        <v>0.3633204746988037</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1191955291079128</v>
+        <v>0.03149023804135338</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.04149588336644561</v>
+        <v>0.4401431157057804</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.4322597029969023</v>
+        <v>0.2194968378150567</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0890698490094866</v>
+        <v>0.09769143963147824</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1145365684183126</v>
+        <v>0.2146811016076186</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.1825446389274687</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.1140101865831221</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.01535381199754408</v>
+        <v>0.09505971439176573</v>
       </c>
     </row>
     <row r="8">
@@ -1427,127 +1381,121 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6859223577051911</v>
+        <v>0.7558515695635151</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1863638958258941</v>
+        <v>-0.218782859670069</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01081936921804029</v>
+        <v>-0.02519343577364333</v>
       </c>
       <c r="E8" t="n">
-        <v>0.641080687202373</v>
+        <v>0.7725555764104418</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1467656901774004</v>
+        <v>0.2658126715406564</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3532570899209783</v>
+        <v>0.4458490458563208</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4483013484513219</v>
+        <v>0.4791702206683649</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2652804889803583</v>
+        <v>0.326287182670117</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4192104781980989</v>
+        <v>0.4806445920198305</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6521420700412509</v>
+        <v>0.7050738381016511</v>
       </c>
       <c r="M8" t="n">
-        <v>0.25302923196307</v>
+        <v>0.2939772518717438</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4186742246329503</v>
+        <v>0.3913599479405554</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5359008911268395</v>
+        <v>0.6177058545626591</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5675068041371137</v>
+        <v>0.6169285272986091</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.519678699987554</v>
+        <v>0.3555249301957409</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4564940209570855</v>
+        <v>0.4725594257635943</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5122884475880013</v>
+        <v>0.5227820694540526</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2061006401793778</v>
+        <v>0.1470800839816014</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09629005847366734</v>
+        <v>0.0786018931467742</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4172292462650742</v>
+        <v>0.5854956865357503</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3365640393386913</v>
+        <v>0.3457975419050201</v>
       </c>
       <c r="X8" t="n">
-        <v>0.6485876964907895</v>
+        <v>0.7233211211003369</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3122253179616014</v>
+        <v>0.3225693044325167</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5095724850589067</v>
+        <v>0.5344416748865873</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2329370886444559</v>
+        <v>0.2234625503149415</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2769990422462781</v>
+        <v>0.302494498502364</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3345374431940034</v>
+        <v>0.3339159527234705</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4752073214682354</v>
+        <v>0.4765140931436002</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.403167442997162</v>
+        <v>0.461568141945603</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2907404575501136</v>
+        <v>0.2827406053497514</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.3390533695613862</v>
+        <v>0.2790690044859696</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1757037897464527</v>
+        <v>0.3901380378210231</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2187392169398081</v>
+        <v>0.05387036283502963</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.06251618718382199</v>
+        <v>0.4955464481419944</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.4506460230523104</v>
+        <v>0.09886166748280402</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.1787497901160016</v>
+        <v>0.1453450163854876</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1537646745672369</v>
+        <v>0.361918967238903</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.2969323307666187</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.1407355563305382</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.02006072285004626</v>
+        <v>0.1880667657729492</v>
       </c>
     </row>
     <row r="9">
@@ -1557,127 +1505,121 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4388344689459334</v>
+        <v>0.4689125106443322</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1271052483366456</v>
+        <v>-0.154675244352393</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07327840883326987</v>
+        <v>-0.05930147923251135</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4095070053995741</v>
+        <v>0.4687780154344857</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07274038499225066</v>
+        <v>0.1339763252554673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2442413811568304</v>
+        <v>0.2978058726407947</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4483013484513219</v>
+        <v>0.4791702206683649</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1862090068716452</v>
+        <v>0.2001891660539818</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2651580516261428</v>
+        <v>0.2956056722679851</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4268786244706027</v>
+        <v>0.4255146242301556</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1807652386669374</v>
+        <v>0.2190352632406285</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2610600479635982</v>
+        <v>0.2241083278550358</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3517601329178897</v>
+        <v>0.3767029443922936</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3607506079629871</v>
+        <v>0.402085754132185</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3440108904861716</v>
+        <v>0.2472208770331061</v>
       </c>
       <c r="R9" t="n">
-        <v>0.264593952249455</v>
+        <v>0.1955208400485841</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3735448514954083</v>
+        <v>0.4114601835782783</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1892327998242489</v>
+        <v>0.07703719253932007</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09402056024776408</v>
+        <v>0.05957768251448615</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2703712766460008</v>
+        <v>0.3713946498549138</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2197049560972491</v>
+        <v>0.1906274174305629</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4568448602630775</v>
+        <v>0.5020525158193601</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1770234783703009</v>
+        <v>0.1537696137813956</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3250053039427063</v>
+        <v>0.3321723104473965</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1568327819482838</v>
+        <v>0.1443899852432986</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2025110069680671</v>
+        <v>0.225130904496688</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2160820018070417</v>
+        <v>0.2350221392554236</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.3375760380563407</v>
+        <v>0.3635508620214141</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.2952351982287419</v>
+        <v>0.3564364017238122</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1972950129487021</v>
+        <v>0.1773984518762639</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.2031076764550954</v>
+        <v>0.1345985130357963</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1416100628619479</v>
+        <v>0.3177553197524482</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.09240382551830423</v>
+        <v>0.05681580044211163</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0573966672720978</v>
+        <v>0.3208666514313259</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.3163653545606173</v>
+        <v>0.08132876106941524</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.09497335330485786</v>
+        <v>0.03207247389799053</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.05876963413655635</v>
+        <v>0.2082293271111027</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.1821563085737443</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.1111193085828055</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.0619822654215775</v>
+        <v>0.2615993381052021</v>
       </c>
     </row>
     <row r="10">
@@ -1687,127 +1629,121 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3440554963802365</v>
+        <v>0.3926722714169593</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1242892267262931</v>
+        <v>-0.1601628929922178</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01274895141415266</v>
+        <v>0.01866801386170784</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2871965742865827</v>
+        <v>0.38305622448429</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08834227089509623</v>
+        <v>0.2054191576891211</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1981261706662515</v>
+        <v>0.259176523660636</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2652804889803583</v>
+        <v>0.326287182670117</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1862090068716452</v>
+        <v>0.2001891660539818</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2823694090506765</v>
+        <v>0.2996135117643497</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2920722039744628</v>
+        <v>0.3448864277109385</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2783702917022201</v>
+        <v>0.371148275583737</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2049238847563734</v>
+        <v>0.2331573477667964</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2859279618691357</v>
+        <v>0.3483568470935685</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2691666109040035</v>
+        <v>0.2796100611411298</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2703324903334119</v>
+        <v>0.2162527462815528</v>
       </c>
       <c r="R10" t="n">
-        <v>0.270121963058284</v>
+        <v>0.2721467166840661</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2526639239655543</v>
+        <v>0.254436468691071</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1265747338871198</v>
+        <v>0.1017940295238399</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05584660440859294</v>
+        <v>0.1119812449639442</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2223909925316505</v>
+        <v>0.2688360207387756</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1850436580046819</v>
+        <v>0.1912559524764783</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2683024057206608</v>
+        <v>0.2909820158761474</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1760530724973016</v>
+        <v>0.1678291033188708</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2441510342658076</v>
+        <v>0.2587112986027434</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1863478488757051</v>
+        <v>0.2179460053321254</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1811502328684533</v>
+        <v>0.1718350756171687</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.2309047641035479</v>
+        <v>0.298308631211357</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2146652814896317</v>
+        <v>0.1775499397345603</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1506728001799818</v>
+        <v>0.136196755995794</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.09449153950382817</v>
+        <v>0.07936153659089726</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.2113038490903359</v>
+        <v>0.1897471709690076</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.1948924819676769</v>
+        <v>0.3006388747245929</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1034940662009014</v>
+        <v>0.03510516203459364</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.05192031312218677</v>
+        <v>0.2470895773741072</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.2571464929617518</v>
+        <v>0.0865719063380391</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.08514035054199613</v>
+        <v>0.08665173660322655</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.06940587800214619</v>
+        <v>0.2338753097467948</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.1787223843281128</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0.07466150091650858</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.01724769073003614</v>
+        <v>0.1268560866004126</v>
       </c>
     </row>
     <row r="11">
@@ -1817,127 +1753,121 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5934194091227138</v>
+        <v>0.6142738875789611</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3176123663309033</v>
+        <v>-0.3496836240686146</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01084304429300573</v>
+        <v>-0.01382736077321659</v>
       </c>
       <c r="E11" t="n">
-        <v>0.525852469359407</v>
+        <v>0.615463655824976</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1475210298351373</v>
+        <v>0.2902254767394777</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4277597855501122</v>
+        <v>0.4698979893608591</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4192104781980989</v>
+        <v>0.4806445920198305</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2651580516261428</v>
+        <v>0.2956056722679851</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2823694090506765</v>
+        <v>0.2996135117643497</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4840759571454779</v>
+        <v>0.5085780814231555</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5254271497374955</v>
+        <v>0.5885368737589237</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3802877788662226</v>
+        <v>0.4138691740503462</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5025642452970789</v>
+        <v>0.5621573253052994</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4756761640117543</v>
+        <v>0.4732220859199812</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4401819485440053</v>
+        <v>0.3084393690488774</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5208560589348542</v>
+        <v>0.4283893143520466</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4072990975301412</v>
+        <v>0.4092618523043934</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2039906113502892</v>
+        <v>0.2041953259353667</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1789811944042987</v>
+        <v>0.1899993436412141</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4306573895835309</v>
+        <v>0.5059275202231118</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2875305312461304</v>
+        <v>0.2936741735646586</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4964581881569537</v>
+        <v>0.4983156490497758</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3774283207939914</v>
+        <v>0.3838921468147695</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.4570691762854194</v>
+        <v>0.5155365341062538</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.4118437636478497</v>
+        <v>0.4418016138665234</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7533376656835118</v>
+        <v>0.7405762993524532</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4924456481258649</v>
+        <v>0.5236282044766432</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2933833766925403</v>
+        <v>0.3294616360244014</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3115739766465533</v>
+        <v>0.3003368705037199</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2246210052206676</v>
+        <v>0.1659777684867592</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.242410776658916</v>
+        <v>0.2308007225992965</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.2001207801727057</v>
+        <v>0.4602613125311341</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.17178507218659</v>
+        <v>0.02291021883336491</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.07729693393111316</v>
+        <v>0.5679771314713913</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.5644478453193914</v>
+        <v>0.1551558838550383</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1035898712267911</v>
+        <v>0.1144910547898779</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1235775412846675</v>
+        <v>0.3094379771983295</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.2158434851599327</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0.1110354265145084</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0.02085765890789935</v>
+        <v>0.07243990989619205</v>
       </c>
     </row>
     <row r="12">
@@ -1947,127 +1877,121 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8455077538466251</v>
+        <v>0.8544645471572188</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.198789118288497</v>
+        <v>-0.2128983438556414</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01794176940042996</v>
+        <v>0.002220710065093882</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7454689970696442</v>
+        <v>0.8711964101458599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2393864068766547</v>
+        <v>0.3283142533641011</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4289922789907142</v>
+        <v>0.4761300821865687</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6521420700412509</v>
+        <v>0.7050738381016511</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4268786244706027</v>
+        <v>0.4255146242301556</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2920722039744628</v>
+        <v>0.3448864277109385</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4840759571454779</v>
+        <v>0.5085780814231555</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3302611471192994</v>
+        <v>0.3187758351221516</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4498636833404331</v>
+        <v>0.4152028348461289</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6344383916409755</v>
+        <v>0.6506996109016872</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5949859778626336</v>
+        <v>0.5549970528996336</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5526330421584704</v>
+        <v>0.3844755373165158</v>
       </c>
       <c r="R12" t="n">
-        <v>0.627909456975607</v>
+        <v>0.5861198271907337</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5576663012042656</v>
+        <v>0.523115250100019</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2587691999001148</v>
+        <v>0.1594194269420307</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1081154605801949</v>
+        <v>0.07801005048850033</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4844319404686372</v>
+        <v>0.6228883327359468</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3810515731456037</v>
+        <v>0.395527539443663</v>
       </c>
       <c r="X12" t="n">
-        <v>0.7338222472213607</v>
+        <v>0.7702760770366194</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.3427965131653589</v>
+        <v>0.3292562920411352</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.5707516280134651</v>
+        <v>0.5364567723627658</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3029487970327717</v>
+        <v>0.2501837954095169</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.3285401566603704</v>
+        <v>0.3225028850292426</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.4467120538565837</v>
+        <v>0.4075549833585188</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.5255379398211685</v>
+        <v>0.505178849306854</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.4110243836652954</v>
+        <v>0.4583842792159535</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.2861938973894901</v>
+        <v>0.2583144528873773</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.3543387981573434</v>
+        <v>0.2485704008502012</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.2091647381277214</v>
+        <v>0.444547165706399</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2318167580687966</v>
+        <v>0.06047502732561887</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.06109730433356204</v>
+        <v>0.4923106859951979</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.5531951902971637</v>
+        <v>0.04642390569526964</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.1340056169518658</v>
+        <v>0.1287366984208213</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.193914295608158</v>
+        <v>0.3971282253788027</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.2981154835032995</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0.1761457520059702</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0.03889327102353056</v>
+        <v>0.2361985567443909</v>
       </c>
     </row>
     <row r="13">
@@ -2077,127 +2001,121 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3942042442431152</v>
+        <v>0.412290043126694</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2584283625680917</v>
+        <v>-0.2860614462667506</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03689348122665071</v>
+        <v>0.000381909472862968</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3537806726942389</v>
+        <v>0.4117404038231813</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1256261889499267</v>
+        <v>0.2406756687068957</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3404308861165898</v>
+        <v>0.4072947170184292</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25302923196307</v>
+        <v>0.2939772518717438</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1807652386669374</v>
+        <v>0.2190352632406285</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2783702917022201</v>
+        <v>0.371148275583737</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5254271497374955</v>
+        <v>0.5885368737589237</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3302611471192994</v>
+        <v>0.3187758351221516</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2338394995114374</v>
+        <v>0.2579968746994665</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4545361065731766</v>
+        <v>0.4422396633622714</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3027525990637168</v>
+        <v>0.2901434670852969</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.255508146513577</v>
+        <v>0.1796687271537421</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4291436478797032</v>
+        <v>0.3358547328443663</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2168339769449041</v>
+        <v>0.2143887773973169</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1916453744531609</v>
+        <v>0.08559592248462271</v>
       </c>
       <c r="U13" t="n">
-        <v>0.244883933365655</v>
+        <v>0.2578243107659303</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3720198256937483</v>
+        <v>0.3834477521679886</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1712713569626355</v>
+        <v>0.1577157427260598</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3259336761000362</v>
+        <v>0.2962675091296665</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2047400311645898</v>
+        <v>0.1822610544149032</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3420421390123646</v>
+        <v>0.3423052573484295</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.6021606405686351</v>
+        <v>0.6546184811950457</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.4300009362507095</v>
+        <v>0.4644737152226934</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.649202495074393</v>
+        <v>0.7060548857498797</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.1645831471229439</v>
+        <v>0.1725502320688545</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1723502637377234</v>
+        <v>0.1882217864713732</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1371419536927619</v>
+        <v>0.1021285560271246</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1716279488948174</v>
+        <v>0.2579628946895536</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1416022680333665</v>
+        <v>0.3606858136967467</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.08675043314059272</v>
+        <v>0.01963566370240034</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.04681784976622616</v>
+        <v>0.5462619116830143</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.5776067129433133</v>
+        <v>0.1929497864071289</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.06684124748741839</v>
+        <v>0.121921439585248</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.09861048183999957</v>
+        <v>0.2338370619818252</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.1256212403339415</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0.03461399708917496</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0.005747390236296391</v>
+        <v>0.04549796598409351</v>
       </c>
     </row>
     <row r="14">
@@ -2207,127 +2125,121 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5240501605342381</v>
+        <v>0.4929710088891477</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1536096816471355</v>
+        <v>-0.1483633784071894</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00598616148384736</v>
+        <v>-0.04938814695824761</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4774556639431604</v>
+        <v>0.4803281418592656</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08968997072104987</v>
+        <v>0.1881810542744551</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3018683422807509</v>
+        <v>0.3302194943933573</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4186742246329503</v>
+        <v>0.3913599479405554</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2610600479635982</v>
+        <v>0.2241083278550358</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2049238847563734</v>
+        <v>0.2331573477667964</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3802877788662226</v>
+        <v>0.4138691740503462</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4498636833404331</v>
+        <v>0.4152028348461289</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2338394995114374</v>
+        <v>0.2579968746994665</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4056974882738126</v>
+        <v>0.3956492238067484</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4761038477914923</v>
+        <v>0.470502873961526</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4124297938473112</v>
+        <v>0.2676962024298217</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3350829864073644</v>
+        <v>0.2745607488885881</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4183529841672737</v>
+        <v>0.3826793905073529</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1717373092723889</v>
+        <v>0.1142864545723742</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08104681077588065</v>
+        <v>0.1401095676860536</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3273962500362851</v>
+        <v>0.3751291506208242</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3221692766711741</v>
+        <v>0.236861109273302</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4863111225142222</v>
+        <v>0.457963702301986</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.3233488760297679</v>
+        <v>0.2755291115766402</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.4065357497653642</v>
+        <v>0.3633852859415898</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1928822903277932</v>
+        <v>0.2321635396206221</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.2836314863719758</v>
+        <v>0.3410852327177325</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2676973837254069</v>
+        <v>0.3000131865232333</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.361353629072476</v>
+        <v>0.4140478646688389</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.30876124090463</v>
+        <v>0.3537307565895718</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.2221385864403323</v>
+        <v>0.2004900644137052</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.2756978551785675</v>
+        <v>0.1655208049367407</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.147258530754949</v>
+        <v>0.263818273310743</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1934858757086662</v>
+        <v>0.03979092611001842</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0509588706617617</v>
+        <v>0.3907994968698751</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.3795215337446119</v>
+        <v>0.07047028058877033</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.1217826192604192</v>
+        <v>0.1243645309092468</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.1071108425615117</v>
+        <v>0.1995043688931727</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.2244225554432578</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0.1414198230542681</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0.01776075800030927</v>
+        <v>0.09284204588274897</v>
       </c>
     </row>
     <row r="15">
@@ -2337,127 +2249,121 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6938472146622033</v>
+        <v>0.7324592634276749</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2128795121861319</v>
+        <v>-0.2516595187761523</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.005720220732902698</v>
+        <v>-0.02498837529785657</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6560902983991248</v>
+        <v>0.7454439294256463</v>
       </c>
       <c r="F15" t="n">
-        <v>0.154879750197445</v>
+        <v>0.2719724261800429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.412208649423273</v>
+        <v>0.5078728471785463</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5359008911268395</v>
+        <v>0.6177058545626591</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3517601329178897</v>
+        <v>0.3767029443922936</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2859279618691357</v>
+        <v>0.3483568470935685</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5025642452970789</v>
+        <v>0.5621573253052994</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6344383916409755</v>
+        <v>0.6506996109016872</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4545361065731766</v>
+        <v>0.4422396633622714</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4056974882738126</v>
+        <v>0.3956492238067484</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5621114153315594</v>
+        <v>0.5588627111201421</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5153605712404321</v>
+        <v>0.354608392717293</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5151489463060107</v>
+        <v>0.427402144089147</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5139915294692342</v>
+        <v>0.5110636821050082</v>
       </c>
       <c r="T15" t="n">
-        <v>0.318845603830667</v>
+        <v>0.2532288540454611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1230527525574458</v>
+        <v>0.07371029873788271</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4423020770347416</v>
+        <v>0.5522272977279797</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3304601710264066</v>
+        <v>0.3098454959220799</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6328825613317595</v>
+        <v>0.6477622717674912</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.335053469116264</v>
+        <v>0.3285426387379187</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.527756837271363</v>
+        <v>0.5155723881442899</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.3253491581251603</v>
+        <v>0.3050184612662073</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.3600525438162445</v>
+        <v>0.3736605943595152</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.4268208703684714</v>
+        <v>0.4031043548106419</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.4241432105659268</v>
+        <v>0.4594674753415687</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.3683148337496226</v>
+        <v>0.4304628912627512</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.2701997543063391</v>
+        <v>0.1945756905660148</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.3197507931136282</v>
+        <v>0.2676101697433076</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2120093030154266</v>
+        <v>0.4535090458066762</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.204910339628336</v>
+        <v>0.0750153991115116</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.08142509524890251</v>
+        <v>0.5514022917607245</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.5556713881983633</v>
+        <v>0.09866109026526801</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.1249158798093516</v>
+        <v>0.1701475976775624</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1666369708176314</v>
+        <v>0.3847477279250339</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.2793643647519313</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0.1324111397952447</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0.02318443952371363</v>
+        <v>0.1448239330156614</v>
       </c>
     </row>
     <row r="16">
@@ -2467,127 +2373,121 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7055087326391669</v>
+        <v>0.7015737000108371</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1949109723514305</v>
+        <v>-0.1861101375217671</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01797946885093214</v>
+        <v>-0.0429276279189901</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6591964430147168</v>
+        <v>0.6966905497889457</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1111121013219039</v>
+        <v>0.2705305415958644</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3657850024366328</v>
+        <v>0.3944499233589653</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5675068041371137</v>
+        <v>0.6169285272986091</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3607506079629871</v>
+        <v>0.402085754132185</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2691666109040035</v>
+        <v>0.2796100611411298</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4756761640117543</v>
+        <v>0.4732220859199812</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5949859778626336</v>
+        <v>0.5549970528996336</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3027525990637168</v>
+        <v>0.2901434670852969</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4761038477914923</v>
+        <v>0.470502873961526</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5621114153315594</v>
+        <v>0.5588627111201421</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5865317945553967</v>
+        <v>0.3774730911855567</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4576611324599468</v>
+        <v>0.3981220792722818</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5700240829875279</v>
+        <v>0.5313116617865086</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2420989982924194</v>
+        <v>0.1180284704974062</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2547387880202615</v>
+        <v>0.2997384531984265</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4992589358578167</v>
+        <v>0.5540479852013453</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3629137465109464</v>
+        <v>0.3225844383471684</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7057681905842355</v>
+        <v>0.6840021992527309</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3792879186039157</v>
+        <v>0.3179412627420197</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.5958036120833643</v>
+        <v>0.532050488395442</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.2358824448122031</v>
+        <v>0.2398524531536058</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.3191896682579423</v>
+        <v>0.3182854361658181</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3208004519518089</v>
+        <v>0.3192725611663327</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.5006698409909771</v>
+        <v>0.4755659287540299</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.4799918083160057</v>
+        <v>0.5252086423184553</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.4091503193430057</v>
+        <v>0.446823797377944</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.3651928372186091</v>
+        <v>0.2532552234219933</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.2102228325008536</v>
+        <v>0.3799403041036551</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.2290852995057709</v>
+        <v>0.05520837832897276</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.09987859184481582</v>
+        <v>0.4703525715136004</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.5220165399314524</v>
+        <v>0.1085901552402386</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.1749286789562949</v>
+        <v>0.07670250386257073</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.1352401199419442</v>
+        <v>0.300496973647722</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.3108729821799831</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.1696902046174352</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0.05033519886138167</v>
+        <v>0.1585561344897854</v>
       </c>
     </row>
     <row r="17">
@@ -2597,127 +2497,121 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6571233697030316</v>
+        <v>0.4630337957057131</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1839712857392423</v>
+        <v>-0.147621431251329</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03455941108344546</v>
+        <v>-0.0262951560087721</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6170319999521047</v>
+        <v>0.4513898921219432</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1203438076335114</v>
+        <v>0.161220448707477</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3504395943989815</v>
+        <v>0.246851665572353</v>
       </c>
       <c r="H17" t="n">
-        <v>0.519678699987554</v>
+        <v>0.3555249301957409</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3440108904861716</v>
+        <v>0.2472208770331061</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2703324903334119</v>
+        <v>0.2162527462815528</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4401819485440053</v>
+        <v>0.3084393690488774</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5526330421584704</v>
+        <v>0.3844755373165158</v>
       </c>
       <c r="M17" t="n">
-        <v>0.255508146513577</v>
+        <v>0.1796687271537421</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4124297938473112</v>
+        <v>0.2676962024298217</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5153605712404321</v>
+        <v>0.354608392717293</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5865317945553967</v>
+        <v>0.3774730911855567</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4016898347548311</v>
+        <v>0.2335630473652301</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5776293123106178</v>
+        <v>0.3806452215064356</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2271180873979859</v>
+        <v>0.1084521223596843</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09410474735134983</v>
+        <v>0.04829269752788223</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4038797941589157</v>
+        <v>0.3298866766761067</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3424079234345758</v>
+        <v>0.2131036465807906</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6053519988903754</v>
+        <v>0.4250059271499392</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3450898599745288</v>
+        <v>0.2070607499028582</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.514944357185579</v>
+        <v>0.3276500167984046</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.2276398569148677</v>
+        <v>0.1324072902802886</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3000522220521309</v>
+        <v>0.1973369032785816</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3122283735986401</v>
+        <v>0.2156296230425708</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.4729175685757752</v>
+        <v>0.3147005010248629</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.4162589038245887</v>
+        <v>0.2950230717395607</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.3286759800831601</v>
+        <v>0.2029523926405602</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.33152036105278</v>
+        <v>0.130152650194454</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1946598216168995</v>
+        <v>0.3184302615623668</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.2102868750291531</v>
+        <v>0.04299422288095973</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.09345060244361769</v>
+        <v>0.2604121340560239</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.4413713740860576</v>
+        <v>0.08819692462009214</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.1556074730161703</v>
+        <v>0.06335807267069359</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.1196349784195048</v>
+        <v>0.1957878945944661</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.297680726694049</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0.1684825357967732</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0.05546394146983805</v>
+        <v>0.1293376693169009</v>
       </c>
     </row>
     <row r="18">
@@ -2727,127 +2621,121 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.636944685119385</v>
+        <v>0.5246267577725164</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1927794799846461</v>
+        <v>-0.1643946970179677</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05112762655901797</v>
+        <v>0.02540456587321663</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5384434905184597</v>
+        <v>0.5452240963192023</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1914867473118539</v>
+        <v>0.2040155761451242</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3752636088397443</v>
+        <v>0.2936998981971951</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4564940209570855</v>
+        <v>0.4725594257635943</v>
       </c>
       <c r="I18" t="n">
-        <v>0.264593952249455</v>
+        <v>0.1955208400485841</v>
       </c>
       <c r="J18" t="n">
-        <v>0.270121963058284</v>
+        <v>0.2721467166840661</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5208560589348542</v>
+        <v>0.4283893143520466</v>
       </c>
       <c r="L18" t="n">
-        <v>0.627909456975607</v>
+        <v>0.5861198271907337</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4291436478797032</v>
+        <v>0.3358547328443663</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3350829864073644</v>
+        <v>0.2745607488885881</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5151489463060107</v>
+        <v>0.427402144089147</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4576611324599468</v>
+        <v>0.3981220792722818</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4016898347548311</v>
+        <v>0.2335630473652301</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3644910604318479</v>
+        <v>0.258858245678286</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2235578595102814</v>
+        <v>0.1286213845397864</v>
       </c>
       <c r="U18" t="n">
-        <v>0.2007290823814721</v>
+        <v>0.1804716215101882</v>
       </c>
       <c r="V18" t="n">
-        <v>0.453602193056851</v>
+        <v>0.5564416613698173</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3064899756245815</v>
+        <v>0.2510784522258828</v>
       </c>
       <c r="X18" t="n">
-        <v>0.4837972529490489</v>
+        <v>0.3853201012214296</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2970425246305748</v>
+        <v>0.1790977419091305</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.4646815804011326</v>
+        <v>0.397448988239994</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.3594051589567717</v>
+        <v>0.2376672183852478</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.3552741842647238</v>
+        <v>0.2448898906144945</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4695587648572676</v>
+        <v>0.3261839189499431</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.2798956998286536</v>
+        <v>0.2285453744336909</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.2189956028604951</v>
+        <v>0.2134183520516559</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.1418103199535216</v>
+        <v>0.1393091587220272</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.2721413082796449</v>
+        <v>0.1944391569863464</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.1667974841641403</v>
+        <v>0.2941363769023036</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.2142506435632252</v>
+        <v>0.05985585298905814</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.06044205338732848</v>
+        <v>0.3963974946509072</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.55208962673049</v>
+        <v>0.03806728224105613</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.06441001392428322</v>
+        <v>0.1512883433976491</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.1844928038653916</v>
+        <v>0.2064554671977742</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.2327181326095765</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0.1152010455859848</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0.01059114873185417</v>
+        <v>0.1067051253612257</v>
       </c>
     </row>
     <row r="19">
@@ -2857,127 +2745,121 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6932958342289137</v>
+        <v>0.6600306001578706</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1621054779378489</v>
+        <v>-0.1807265418953721</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04133257473985212</v>
+        <v>-0.0664122496501343</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5990145589621569</v>
+        <v>0.6291273761074164</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1344620740875273</v>
+        <v>0.2291584249372504</v>
       </c>
       <c r="G19" t="n">
-        <v>0.333860469099079</v>
+        <v>0.4030275677751399</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5122884475880013</v>
+        <v>0.5227820694540526</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3735448514954083</v>
+        <v>0.4114601835782783</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2526639239655543</v>
+        <v>0.254436468691071</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4072990975301412</v>
+        <v>0.4092618523043934</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5576663012042656</v>
+        <v>0.523115250100019</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2168339769449041</v>
+        <v>0.2143887773973169</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4183529841672737</v>
+        <v>0.3826793905073529</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5139915294692342</v>
+        <v>0.5110636821050082</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5700240829875279</v>
+        <v>0.5313116617865086</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5776293123106178</v>
+        <v>0.3806452215064356</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3644910604318479</v>
+        <v>0.258858245678286</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2378655078443722</v>
+        <v>0.163411568434278</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06509070873450451</v>
+        <v>0.05030415138248655</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3786870188159323</v>
+        <v>0.4321117152443816</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3324824123950925</v>
+        <v>0.3003565733970484</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5789048499475138</v>
+        <v>0.5891060714671905</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3342499452270226</v>
+        <v>0.3003333354204283</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.4968546540975594</v>
+        <v>0.4756728279747132</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1869570047191945</v>
+        <v>0.1700621333404206</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.2911798045681054</v>
+        <v>0.296522307308039</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.2797377127051273</v>
+        <v>0.2693122016742913</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.4410317135257283</v>
+        <v>0.4385457804106596</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.4234830085149756</v>
+        <v>0.4478765071128708</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.3216145993497225</v>
+        <v>0.3023345979019059</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.312923047911035</v>
+        <v>0.2226295091224629</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.2063685202339188</v>
+        <v>0.4091413361074556</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.2265881933555304</v>
+        <v>0.09531675978628966</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.09137649965587233</v>
+        <v>0.3939770633904045</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.4032167679493509</v>
+        <v>0.09681648023110963</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.1313682182650264</v>
+        <v>0.07775964878955274</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.1342166946807552</v>
+        <v>0.2719332484231462</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.2704047127517294</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0.1553682437588823</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0.06073779290303935</v>
+        <v>0.1562835654735659</v>
       </c>
     </row>
     <row r="20">
@@ -2987,127 +2869,121 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2826257430823538</v>
+        <v>0.176745260641387</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09450283682479244</v>
+        <v>-0.1060403929583493</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.009347789357344451</v>
+        <v>0.02483872704907448</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2755735258443152</v>
+        <v>0.1849001743334124</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05933374187197744</v>
+        <v>0.1086077239148785</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1571814675467056</v>
+        <v>0.1104500928736119</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2061006401793778</v>
+        <v>0.1470800839816014</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1892327998242489</v>
+        <v>0.07703719253932007</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1265747338871198</v>
+        <v>0.1017940295238399</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2039906113502892</v>
+        <v>0.2041953259353667</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2587691999001148</v>
+        <v>0.1594194269420307</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1916453744531609</v>
+        <v>0.08559592248462271</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1717373092723889</v>
+        <v>0.1142864545723742</v>
       </c>
       <c r="O20" t="n">
-        <v>0.318845603830667</v>
+        <v>0.2532288540454611</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2420989982924194</v>
+        <v>0.1180284704974062</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2271180873979859</v>
+        <v>0.1084521223596843</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2235578595102814</v>
+        <v>0.1286213845397864</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2378655078443722</v>
+        <v>0.163411568434278</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05594759232866699</v>
+        <v>-0.003227073647485593</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1797429125815613</v>
+        <v>0.1627432594552563</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1396872302007891</v>
+        <v>0.05749273344909391</v>
       </c>
       <c r="X20" t="n">
-        <v>0.253988476152524</v>
+        <v>0.1291647262404064</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1362318241430235</v>
+        <v>0.07574483127843945</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.2227232828916565</v>
+        <v>0.107611215990579</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.1257140544682409</v>
+        <v>0.04066490585012301</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1499859772731604</v>
+        <v>0.1499452443850949</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1686028527490116</v>
+        <v>0.0745339550596535</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.1511457752069498</v>
+        <v>0.0956381996068127</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.1460074127247915</v>
+        <v>0.09242534962768369</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.1164611961144202</v>
+        <v>0.02495942286719988</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.1278746295806069</v>
+        <v>0.03808921412490812</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.08787822136830532</v>
+        <v>0.1088090863281371</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.0811576012408933</v>
+        <v>0.1438557037000706</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.1638180625689386</v>
+        <v>0.1145242239537068</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.2278730068912942</v>
+        <v>0.002301328080873551</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.04254404927660812</v>
+        <v>0.08764742063605427</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.06948783962351246</v>
+        <v>0.09253915557599664</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.1096439059209677</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0.05549490372804756</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0.001560560658874549</v>
+        <v>0.007179235294090502</v>
       </c>
     </row>
     <row r="21">
@@ -3117,127 +2993,121 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1318321743165112</v>
+        <v>0.111168514376606</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06912180425606398</v>
+        <v>-0.05007062492065389</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04085707138078214</v>
+        <v>-0.006284874038241916</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1252528296522661</v>
+        <v>0.1171227261601032</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03187986930559501</v>
+        <v>0.06027986860778706</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1277223378871413</v>
+        <v>0.1847672559213863</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09629005847366734</v>
+        <v>0.0786018931467742</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09402056024776408</v>
+        <v>0.05957768251448615</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05584660440859294</v>
+        <v>0.1119812449639442</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1789811944042987</v>
+        <v>0.1899993436412141</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1081154605801949</v>
+        <v>0.07801005048850033</v>
       </c>
       <c r="M21" t="n">
-        <v>0.244883933365655</v>
+        <v>0.2578243107659303</v>
       </c>
       <c r="N21" t="n">
-        <v>0.08104681077588065</v>
+        <v>0.1401095676860536</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1230527525574458</v>
+        <v>0.07371029873788271</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2547387880202615</v>
+        <v>0.2997384531984265</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09410474735134983</v>
+        <v>0.04829269752788223</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2007290823814721</v>
+        <v>0.1804716215101882</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06509070873450451</v>
+        <v>0.05030415138248655</v>
       </c>
       <c r="T21" t="n">
-        <v>0.05594759232866699</v>
+        <v>-0.003227073647485593</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3099453834394287</v>
+        <v>0.2623417334860554</v>
       </c>
       <c r="W21" t="n">
-        <v>0.05541772756766369</v>
+        <v>0.05578085335527732</v>
       </c>
       <c r="X21" t="n">
-        <v>0.1390995741803184</v>
+        <v>0.08598461810817708</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05454423350190664</v>
+        <v>0.01262411423852833</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.176779836396643</v>
+        <v>0.1254214636532287</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.1386528036463258</v>
+        <v>0.1626530529981866</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.1242964637967671</v>
+        <v>0.1071939585791998</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1586101010959565</v>
+        <v>0.1250779385563035</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.05868984379538464</v>
+        <v>0.03268207684599964</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.08854878040762687</v>
+        <v>0.1225567377266137</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0999298554308421</v>
+        <v>0.2120084000277284</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.05740998246001421</v>
+        <v>0.01981392274801285</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.03987780649991424</v>
+        <v>0.09863172333570405</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.02545860758081417</v>
+        <v>0.01980071040203334</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.006230136740658612</v>
+        <v>0.3041693658687787</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.2931264287402547</v>
+        <v>0.02683949273181783</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.03121637951509421</v>
+        <v>0.08825141332969828</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.05918784403836209</v>
+        <v>0.05686445477081636</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.04347302979512339</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0.01757232454017999</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>-0.001063856560668769</v>
+        <v>0.02091536666363062</v>
       </c>
     </row>
     <row r="22">
@@ -3247,127 +3117,121 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5296846695153899</v>
+        <v>0.6617258858428446</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1626987805706143</v>
+        <v>-0.1948034004649211</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0127079777777227</v>
+        <v>0.00238781033071572</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5173862713442015</v>
+        <v>0.6818854976196435</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1112368099463734</v>
+        <v>0.2475922490340083</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3139022800493913</v>
+        <v>0.4177074829567623</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4172292462650742</v>
+        <v>0.5854956865357503</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2703712766460008</v>
+        <v>0.3713946498549138</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2223909925316505</v>
+        <v>0.2688360207387756</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4306573895835309</v>
+        <v>0.5059275202231118</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4844319404686372</v>
+        <v>0.6228883327359468</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3720198256937483</v>
+        <v>0.3834477521679886</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3273962500362851</v>
+        <v>0.3751291506208242</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4423020770347416</v>
+        <v>0.5522272977279797</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4992589358578167</v>
+        <v>0.5540479852013453</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4038797941589157</v>
+        <v>0.3298866766761067</v>
       </c>
       <c r="R22" t="n">
-        <v>0.453602193056851</v>
+        <v>0.5564416613698173</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3786870188159323</v>
+        <v>0.4321117152443816</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1797429125815613</v>
+        <v>0.1627432594552563</v>
       </c>
       <c r="U22" t="n">
-        <v>0.3099453834394287</v>
+        <v>0.2623417334860554</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.2650508153146085</v>
+        <v>0.3166052180814438</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5140381057147029</v>
+        <v>0.6000217183928453</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.2702427368094427</v>
+        <v>0.2641687637347657</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.5405154944981131</v>
+        <v>0.5507093109845255</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.2933324679635768</v>
+        <v>0.2998703132525821</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.3052082751824011</v>
+        <v>0.3550702973081046</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.3675434220549325</v>
+        <v>0.3960130891784604</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.3234092593115616</v>
+        <v>0.4296267817160088</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.3223014667597763</v>
+        <v>0.360099490807738</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.2296157352765185</v>
+        <v>0.2683715975385336</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.254429088512062</v>
+        <v>0.1995391960931953</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1526736203514802</v>
+        <v>0.4248483027299186</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.1579639624686044</v>
+        <v>0.06354617644106973</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.04633149255582898</v>
+        <v>0.500104161717194</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.4739173278951123</v>
+        <v>0.08102891033241551</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.09922530488087987</v>
+        <v>0.08785865281919501</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.1089552832162613</v>
+        <v>0.2889279823219066</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.1932511601184467</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0.1180363373418025</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0.01584628481869564</v>
+        <v>0.1709409975317735</v>
       </c>
     </row>
     <row r="23">
@@ -3377,127 +3241,121 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4390643160764011</v>
+        <v>0.4624470444821282</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1393781679914015</v>
+        <v>-0.1532092034365886</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002036692607185681</v>
+        <v>0.002517831742428625</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3988689251465236</v>
+        <v>0.4569028609634023</v>
       </c>
       <c r="F23" t="n">
-        <v>0.070523509320382</v>
+        <v>0.1505656091364428</v>
       </c>
       <c r="G23" t="n">
-        <v>0.216667135080587</v>
+        <v>0.2702341763051548</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3365640393386913</v>
+        <v>0.3457975419050201</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2197049560972491</v>
+        <v>0.1906274174305629</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1850436580046819</v>
+        <v>0.1912559524764783</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2875305312461304</v>
+        <v>0.2936741735646586</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3810515731456037</v>
+        <v>0.395527539443663</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1712713569626355</v>
+        <v>0.1577157427260598</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3221692766711741</v>
+        <v>0.236861109273302</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3304601710264066</v>
+        <v>0.3098454959220799</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3629137465109464</v>
+        <v>0.3225844383471684</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3424079234345758</v>
+        <v>0.2131036465807906</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3064899756245815</v>
+        <v>0.2510784522258828</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3324824123950925</v>
+        <v>0.3003565733970484</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1396872302007891</v>
+        <v>0.05749273344909391</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05541772756766369</v>
+        <v>0.05578085335527732</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2650508153146085</v>
+        <v>0.3166052180814438</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3891506991323502</v>
+        <v>0.4111953691586343</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4027331835932134</v>
+        <v>0.4473978685523821</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.3141976686779804</v>
+        <v>0.277605528561766</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.1476542915906156</v>
+        <v>0.1929163735143503</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.180048646342741</v>
+        <v>0.1598442937329191</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.2207527449734939</v>
+        <v>0.277419770238657</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.2815334526142935</v>
+        <v>0.2594442336240616</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.229695424202773</v>
+        <v>0.2466016352618985</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.1699147373386356</v>
+        <v>0.1046656069987067</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.2081804145529595</v>
+        <v>0.1490762973414634</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.1258234112237837</v>
+        <v>0.3250514401437945</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.1423470917614997</v>
+        <v>0.01754030150131032</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.05363653545853385</v>
+        <v>0.2948971441195445</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.3229147803860757</v>
+        <v>0.1355591117668471</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.07571665476566339</v>
+        <v>0.04224208735752347</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.08353091047313557</v>
+        <v>0.2421019285609754</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.1883748111748701</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0.1114649702542937</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0.02301283822855675</v>
+        <v>0.1075861857615065</v>
       </c>
     </row>
     <row r="24">
@@ -3507,127 +3365,121 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7866980898557849</v>
+        <v>0.8548228088072569</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2030637049154375</v>
+        <v>-0.2009882986165347</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.04083021421126998</v>
+        <v>-0.05554738052980068</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8387446252565028</v>
+        <v>0.8739327727237201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1363834060360397</v>
+        <v>0.2856643537361342</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4092033973188703</v>
+        <v>0.4790424491620937</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6485876964907895</v>
+        <v>0.7233211211003369</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4568448602630775</v>
+        <v>0.5020525158193601</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2683024057206608</v>
+        <v>0.2909820158761474</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4964581881569537</v>
+        <v>0.4983156490497758</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7338222472213607</v>
+        <v>0.7702760770366194</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3259336761000362</v>
+        <v>0.2962675091296665</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4863111225142222</v>
+        <v>0.457963702301986</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6328825613317595</v>
+        <v>0.6477622717674912</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7057681905842355</v>
+        <v>0.6840021992527309</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6053519988903754</v>
+        <v>0.4250059271499392</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4837972529490489</v>
+        <v>0.3853201012214296</v>
       </c>
       <c r="S24" t="n">
-        <v>0.5789048499475138</v>
+        <v>0.5891060714671905</v>
       </c>
       <c r="T24" t="n">
-        <v>0.253988476152524</v>
+        <v>0.1291647262404064</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1390995741803184</v>
+        <v>0.08598461810817708</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5140381057147029</v>
+        <v>0.6000217183928453</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3891506991323502</v>
+        <v>0.4111953691586343</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3678870209679648</v>
+        <v>0.3765471288280302</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6515327187787091</v>
+        <v>0.5957270436635093</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.2743758364244335</v>
+        <v>0.2673530894325921</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.3482188699717995</v>
+        <v>0.3317452532015583</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.3811068688031283</v>
+        <v>0.3874985397931531</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.5604424608947632</v>
+        <v>0.6055138127164286</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.5415715380340999</v>
+        <v>0.6015548662411965</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.4166059096016558</v>
+        <v>0.395582409911559</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.3441460945460362</v>
+        <v>0.255787783935876</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.2161518828231494</v>
+        <v>0.4445557279710041</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.2189316075956567</v>
+        <v>0.05553328587174566</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.08378116742478342</v>
+        <v>0.5300347496313066</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.5701932669157337</v>
+        <v>0.09824467713277438</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.1655606448200238</v>
+        <v>0.1088302098661675</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.1477644981738858</v>
+        <v>0.3830817088937507</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.291430757350657</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0.1768022049234476</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0.03617706905119519</v>
+        <v>0.2374266915212941</v>
       </c>
     </row>
     <row r="25">
@@ -3637,127 +3489,121 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4547112553827656</v>
+        <v>0.4574790858914168</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2267123581786418</v>
+        <v>-0.2149842563895766</v>
       </c>
       <c r="D25" t="n">
-        <v>0.009442941844384501</v>
+        <v>-0.006405342917244964</v>
       </c>
       <c r="E25" t="n">
-        <v>0.368518595441537</v>
+        <v>0.4346878056224779</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07359495987493048</v>
+        <v>0.1802234641669323</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2206022091223085</v>
+        <v>0.2802255110669098</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3122253179616014</v>
+        <v>0.3225693044325167</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1770234783703009</v>
+        <v>0.1537696137813956</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1760530724973016</v>
+        <v>0.1678291033188708</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3774283207939914</v>
+        <v>0.3838921468147695</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3427965131653589</v>
+        <v>0.3292562920411352</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2047400311645898</v>
+        <v>0.1822610544149032</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3233488760297679</v>
+        <v>0.2755291115766402</v>
       </c>
       <c r="O25" t="n">
-        <v>0.335053469116264</v>
+        <v>0.3285426387379187</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3792879186039157</v>
+        <v>0.3179412627420197</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3450898599745288</v>
+        <v>0.2070607499028582</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2970425246305748</v>
+        <v>0.1790977419091305</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3342499452270226</v>
+        <v>0.3003333354204283</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1362318241430235</v>
+        <v>0.07574483127843945</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05454423350190664</v>
+        <v>0.01262411423852833</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2702427368094427</v>
+        <v>0.2641687637347657</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4027331835932134</v>
+        <v>0.4473978685523821</v>
       </c>
       <c r="X25" t="n">
-        <v>0.3678870209679648</v>
+        <v>0.3765471288280302</v>
       </c>
       <c r="Y25" t="n">
         <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.3211360149291707</v>
+        <v>0.28519581239343</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1779690927242386</v>
+        <v>0.2484459114262536</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.2649403291020386</v>
+        <v>0.221705010929295</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2172411009951092</v>
+        <v>0.2823118045776069</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.2593324288773135</v>
+        <v>0.2529882981890161</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.2373307593495231</v>
+        <v>0.2138797198932961</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.1536659398334256</v>
+        <v>0.06487082930825888</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.173566387941971</v>
+        <v>0.1106479888246795</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.1189905813399924</v>
+        <v>0.2954691430002583</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.1877691293622874</v>
+        <v>0.009623438589721783</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.05433682727095179</v>
+        <v>0.274207790492785</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.2997246805654444</v>
+        <v>0.1419443276887668</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.08116234558075784</v>
+        <v>0.09888749275309457</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.1023316034352857</v>
+        <v>0.2458471152984849</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.1727412773734697</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0.1386275821476323</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0.0249391073996414</v>
+        <v>0.07213447750044721</v>
       </c>
     </row>
     <row r="26">
@@ -3767,127 +3613,121 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6432229071112442</v>
+        <v>0.6159643432951335</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1902385352608358</v>
+        <v>-0.2045811181415646</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01666742056541509</v>
+        <v>-0.04693613273217195</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6229307361358223</v>
+        <v>0.6335521549158146</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1206649487487063</v>
+        <v>0.2678990392618801</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3551213865104751</v>
+        <v>0.3438101125141702</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5095724850589067</v>
+        <v>0.5344416748865873</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3250053039427063</v>
+        <v>0.3321723104473965</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2441510342658076</v>
+        <v>0.2587112986027434</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4570691762854194</v>
+        <v>0.5155365341062538</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5707516280134651</v>
+        <v>0.5364567723627658</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3420421390123646</v>
+        <v>0.3423052573484295</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4065357497653642</v>
+        <v>0.3633852859415898</v>
       </c>
       <c r="O26" t="n">
-        <v>0.527756837271363</v>
+        <v>0.5155723881442899</v>
       </c>
       <c r="P26" t="n">
-        <v>0.5958036120833643</v>
+        <v>0.532050488395442</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.514944357185579</v>
+        <v>0.3276500167984046</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4646815804011326</v>
+        <v>0.397448988239994</v>
       </c>
       <c r="S26" t="n">
-        <v>0.4968546540975594</v>
+        <v>0.4756728279747132</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2227232828916565</v>
+        <v>0.107611215990579</v>
       </c>
       <c r="U26" t="n">
-        <v>0.176779836396643</v>
+        <v>0.1254214636532287</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5405154944981131</v>
+        <v>0.5507093109845255</v>
       </c>
       <c r="W26" t="n">
-        <v>0.3141976686779804</v>
+        <v>0.277605528561766</v>
       </c>
       <c r="X26" t="n">
-        <v>0.6515327187787091</v>
+        <v>0.5957270436635093</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3211360149291707</v>
+        <v>0.28519581239343</v>
       </c>
       <c r="Z26" t="n">
         <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.2582028432060575</v>
+        <v>0.2349047349398975</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.3171941975619122</v>
+        <v>0.3114259539581786</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.3454607102138834</v>
+        <v>0.3201329105679033</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.4362043445521679</v>
+        <v>0.4366947141779353</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.4096027970318821</v>
+        <v>0.4097694679120307</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.3261762763649477</v>
+        <v>0.2513561072927461</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.3136853837103029</v>
+        <v>0.2359461135531573</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1834412282213079</v>
+        <v>0.3602633419923747</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.1925212164887768</v>
+        <v>0.05122474553902227</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.06453636630318578</v>
+        <v>0.4705971519289042</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.5337563798445815</v>
+        <v>0.09136014203979551</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.154597227440618</v>
+        <v>0.1248013487987503</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.1571456949043384</v>
+        <v>0.2773315461463233</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.256253160404368</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0.1389295867104294</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0.02285897206650207</v>
+        <v>0.1956226406700874</v>
       </c>
     </row>
     <row r="27">
@@ -3897,127 +3737,121 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3659874363243239</v>
+        <v>0.3666717723754295</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.218906477209573</v>
+        <v>-0.2579180620672377</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0005030411861753684</v>
+        <v>0.02624819487314735</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3280402090902928</v>
+        <v>0.3515226319402374</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1264697120579365</v>
+        <v>0.2649409460664649</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2825652328942032</v>
+        <v>0.3042366278414308</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2329370886444559</v>
+        <v>0.2234625503149415</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1568327819482838</v>
+        <v>0.1443899852432986</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1863478488757051</v>
+        <v>0.2179460053321254</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4118437636478497</v>
+        <v>0.4418016138665234</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3029487970327717</v>
+        <v>0.2501837954095169</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6021606405686351</v>
+        <v>0.6546184811950457</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1928822903277932</v>
+        <v>0.2321635396206221</v>
       </c>
       <c r="O27" t="n">
-        <v>0.3253491581251603</v>
+        <v>0.3050184612662073</v>
       </c>
       <c r="P27" t="n">
-        <v>0.2358824448122031</v>
+        <v>0.2398524531536058</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2276398569148677</v>
+        <v>0.1324072902802886</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3594051589567717</v>
+        <v>0.2376672183852478</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1869570047191945</v>
+        <v>0.1700621333404206</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1257140544682409</v>
+        <v>0.04066490585012301</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1386528036463258</v>
+        <v>0.1626530529981866</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2933324679635768</v>
+        <v>0.2998703132525821</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1476542915906156</v>
+        <v>0.1929163735143503</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2743758364244335</v>
+        <v>0.2673530894325921</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.1779690927242386</v>
+        <v>0.2484459114262536</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.2582028432060575</v>
+        <v>0.2349047349398975</v>
       </c>
       <c r="AA27" t="n">
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.3482163824515466</v>
+        <v>0.3389761580715734</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.8812508197635297</v>
+        <v>0.8895519823343075</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.1496006731684558</v>
+        <v>0.1454696612372313</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.1199586315779542</v>
+        <v>0.136205442774272</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.08596801057720173</v>
+        <v>0.08455107195995468</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.1513083669889707</v>
+        <v>0.209571652646572</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1293938699057115</v>
+        <v>0.2695286897657285</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.09640400152496696</v>
+        <v>-0.004803193447564288</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.02780977460340543</v>
+        <v>0.4446434213029014</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.5353212864549188</v>
+        <v>0.2083312105790656</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.06093613227962826</v>
+        <v>0.1225059018768529</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.1122974315054779</v>
+        <v>0.2003314373707476</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.1207991719155116</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0.05241460613139561</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>-0.002109756973338825</v>
+        <v>-0.003265881271726435</v>
       </c>
     </row>
     <row r="28">
@@ -4027,127 +3861,121 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4169532801679524</v>
+        <v>0.3970124898407984</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3181439547842668</v>
+        <v>-0.3188051256601572</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.02572950999339552</v>
+        <v>-0.02808701411620781</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3662662078996963</v>
+        <v>0.3979140092481513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09890058625496408</v>
+        <v>0.1941565763428794</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3527242445615826</v>
+        <v>0.3758232753246896</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2769990422462781</v>
+        <v>0.302494498502364</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2025110069680671</v>
+        <v>0.225130904496688</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1811502328684533</v>
+        <v>0.1718350756171687</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7533376656835118</v>
+        <v>0.7405762993524532</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3285401566603704</v>
+        <v>0.3225028850292426</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4300009362507095</v>
+        <v>0.4644737152226934</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2836314863719758</v>
+        <v>0.3410852327177325</v>
       </c>
       <c r="O28" t="n">
-        <v>0.3600525438162445</v>
+        <v>0.3736605943595152</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3191896682579423</v>
+        <v>0.3182854361658181</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3000522220521309</v>
+        <v>0.1973369032785816</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3552741842647238</v>
+        <v>0.2448898906144945</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2911798045681054</v>
+        <v>0.296522307308039</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1499859772731604</v>
+        <v>0.1499452443850949</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1242964637967671</v>
+        <v>0.1071939585791998</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3052082751824011</v>
+        <v>0.3550702973081046</v>
       </c>
       <c r="W28" t="n">
-        <v>0.180048646342741</v>
+        <v>0.1598442937329191</v>
       </c>
       <c r="X28" t="n">
-        <v>0.3482188699717995</v>
+        <v>0.3317452532015583</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.2649403291020386</v>
+        <v>0.221705010929295</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.3171941975619122</v>
+        <v>0.3114259539581786</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.3482163824515466</v>
+        <v>0.3389761580715734</v>
       </c>
       <c r="AB28" t="n">
         <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.4029356377835714</v>
+        <v>0.402478394144374</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.181269622222076</v>
+        <v>0.2237823062265092</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.2234914743107625</v>
+        <v>0.1990556149514024</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.1560499028445723</v>
+        <v>0.08927976995781654</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.1550413617543447</v>
+        <v>0.1592918850465077</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1432903548848101</v>
+        <v>0.3034898582929833</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.1201504124178126</v>
+        <v>0.01557583180586354</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.0459440435650371</v>
+        <v>0.3296937399491076</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.4233799367970307</v>
+        <v>0.1092964241892113</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.06028991847865944</v>
+        <v>0.05303189126880027</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.0766368429987057</v>
+        <v>0.1836081336926772</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.1312896334821869</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0.07154723185721321</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0.01088357292254054</v>
+        <v>-0.007495443823329361</v>
       </c>
     </row>
     <row r="29">
@@ -4157,127 +3985,121 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5172382796666091</v>
+        <v>0.5196532607791682</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2443652624926781</v>
+        <v>-0.2776359301218544</v>
       </c>
       <c r="D29" t="n">
-        <v>0.009950916446212198</v>
+        <v>0.03987276030687099</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4367311463119101</v>
+        <v>0.5009726062820401</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1866501457844324</v>
+        <v>0.3335614466089467</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3546491742298924</v>
+        <v>0.3511019614613671</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3345374431940034</v>
+        <v>0.3339159527234705</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2160820018070417</v>
+        <v>0.2350221392554236</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2309047641035479</v>
+        <v>0.298308631211357</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4924456481258649</v>
+        <v>0.5236282044766432</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4467120538565837</v>
+        <v>0.4075549833585188</v>
       </c>
       <c r="M29" t="n">
-        <v>0.649202495074393</v>
+        <v>0.7060548857498797</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2676973837254069</v>
+        <v>0.3000131865232333</v>
       </c>
       <c r="O29" t="n">
-        <v>0.4268208703684714</v>
+        <v>0.4031043548106419</v>
       </c>
       <c r="P29" t="n">
-        <v>0.3208004519518089</v>
+        <v>0.3192725611663327</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3122283735986401</v>
+        <v>0.2156296230425708</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4695587648572676</v>
+        <v>0.3261839189499431</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2797377127051273</v>
+        <v>0.2693122016742913</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1686028527490116</v>
+        <v>0.0745339550596535</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1586101010959565</v>
+        <v>0.1250779385563035</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3675434220549325</v>
+        <v>0.3960130891784604</v>
       </c>
       <c r="W29" t="n">
-        <v>0.2207527449734939</v>
+        <v>0.277419770238657</v>
       </c>
       <c r="X29" t="n">
-        <v>0.3811068688031283</v>
+        <v>0.3874985397931531</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2172411009951092</v>
+        <v>0.2823118045776069</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.3454607102138834</v>
+        <v>0.3201329105679033</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.8812508197635297</v>
+        <v>0.8895519823343075</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.4029356377835714</v>
+        <v>0.402478394144374</v>
       </c>
       <c r="AC29" t="n">
         <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.2262798141643238</v>
+        <v>0.2255698242677026</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.1787989110367204</v>
+        <v>0.2115124614591979</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.1183169576764404</v>
+        <v>0.09060742333545972</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.1998538241767547</v>
+        <v>0.2318202080321494</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1817270044285197</v>
+        <v>0.3711665854645264</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.1367782212458685</v>
+        <v>0.01028411698071837</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.04653282555884794</v>
+        <v>0.4777074917321861</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.6002792741359285</v>
+        <v>0.2002839214410481</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.07505559216781123</v>
+        <v>0.141877507197557</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.1358344038043064</v>
+        <v>0.2653563806915369</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.1653601904544982</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0.07485856478863816</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>0.0002041511905115363</v>
+        <v>0.04961697522622628</v>
       </c>
     </row>
     <row r="30">
@@ -4287,127 +4109,121 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5914857469457014</v>
+        <v>0.595233688813282</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1306386917044638</v>
+        <v>-0.1345164702364574</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03108370149701041</v>
+        <v>-0.0589253681045987</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4917219076384466</v>
+        <v>0.5457801827182329</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1328131108163425</v>
+        <v>0.2435470409434932</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2489520084745349</v>
+        <v>0.3176742172099784</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4752073214682354</v>
+        <v>0.4765140931436002</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3375760380563407</v>
+        <v>0.3635508620214141</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2146652814896317</v>
+        <v>0.1775499397345603</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2933833766925403</v>
+        <v>0.3294616360244014</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5255379398211685</v>
+        <v>0.505178849306854</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1645831471229439</v>
+        <v>0.1725502320688545</v>
       </c>
       <c r="N30" t="n">
-        <v>0.361353629072476</v>
+        <v>0.4140478646688389</v>
       </c>
       <c r="O30" t="n">
-        <v>0.4241432105659268</v>
+        <v>0.4594674753415687</v>
       </c>
       <c r="P30" t="n">
-        <v>0.5006698409909771</v>
+        <v>0.4755659287540299</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4729175685757752</v>
+        <v>0.3147005010248629</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2798956998286536</v>
+        <v>0.2285453744336909</v>
       </c>
       <c r="S30" t="n">
-        <v>0.4410317135257283</v>
+        <v>0.4385457804106596</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1511457752069498</v>
+        <v>0.0956381996068127</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05868984379538464</v>
+        <v>0.03268207684599964</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3234092593115616</v>
+        <v>0.4296267817160088</v>
       </c>
       <c r="W30" t="n">
-        <v>0.2815334526142935</v>
+        <v>0.2594442336240616</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5604424608947632</v>
+        <v>0.6055138127164286</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2593324288773135</v>
+        <v>0.2529882981890161</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.4362043445521679</v>
+        <v>0.4366947141779353</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.1496006731684558</v>
+        <v>0.1454696612372313</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.181269622222076</v>
+        <v>0.2237823062265092</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.2262798141643238</v>
+        <v>0.2255698242677026</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.4162677540204898</v>
+        <v>0.4774653518155025</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.3480315181923017</v>
+        <v>0.2802952248483591</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.3258509096298995</v>
+        <v>0.1671009807994411</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.1412230637567486</v>
+        <v>0.3081884332508889</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.132247309253429</v>
+        <v>0.04493877734483702</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.0402704871698333</v>
+        <v>0.3141676537257987</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.3416023071861777</v>
+        <v>0.09737728506362792</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.1911328827701924</v>
+        <v>0.06705482017928036</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.1143292962457663</v>
+        <v>0.2390197504501207</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.2957892448213874</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0.1724476856892095</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>0.1636828263874391</v>
+        <v>0.197276562942084</v>
       </c>
     </row>
     <row r="31">
@@ -4417,127 +4233,121 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4775228496511</v>
+        <v>0.5323021370701455</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1191422940824942</v>
+        <v>-0.132013393927053</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.08458564139786783</v>
+        <v>-0.09808585799195646</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4872189255834103</v>
+        <v>0.5500212910535278</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06987209400503688</v>
+        <v>0.17097318313185</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2542221449635534</v>
+        <v>0.3573443391117359</v>
       </c>
       <c r="H31" t="n">
-        <v>0.403167442997162</v>
+        <v>0.461568141945603</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2952351982287419</v>
+        <v>0.3564364017238122</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1506728001799818</v>
+        <v>0.136196755995794</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3115739766465533</v>
+        <v>0.3003368705037199</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4110243836652954</v>
+        <v>0.4583842792159535</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1723502637377234</v>
+        <v>0.1882217864713732</v>
       </c>
       <c r="N31" t="n">
-        <v>0.30876124090463</v>
+        <v>0.3537307565895718</v>
       </c>
       <c r="O31" t="n">
-        <v>0.3683148337496226</v>
+        <v>0.4304628912627512</v>
       </c>
       <c r="P31" t="n">
-        <v>0.4799918083160057</v>
+        <v>0.5252086423184553</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4162589038245887</v>
+        <v>0.2950230717395607</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2189956028604951</v>
+        <v>0.2134183520516559</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4234830085149756</v>
+        <v>0.4478765071128708</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1460074127247915</v>
+        <v>0.09242534962768369</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08854878040762687</v>
+        <v>0.1225567377266137</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3223014667597763</v>
+        <v>0.360099490807738</v>
       </c>
       <c r="W31" t="n">
-        <v>0.229695424202773</v>
+        <v>0.2466016352618985</v>
       </c>
       <c r="X31" t="n">
-        <v>0.5415715380340999</v>
+        <v>0.6015548662411965</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2373307593495231</v>
+        <v>0.2138797198932961</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.4096027970318821</v>
+        <v>0.4097694679120307</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.1199586315779542</v>
+        <v>0.136205442774272</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.2234914743107625</v>
+        <v>0.1990556149514024</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.1787989110367204</v>
+        <v>0.2115124614591979</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.4162677540204898</v>
+        <v>0.4774653518155025</v>
       </c>
       <c r="AE31" t="n">
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.3702541710583783</v>
+        <v>0.3101047172729142</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.2225526099184391</v>
+        <v>0.1989626527511565</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.1313029899141373</v>
+        <v>0.3114449033047714</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.1260350404017276</v>
+        <v>0.04538817844942588</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.06778950277404767</v>
+        <v>0.334423215136059</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.336079632431718</v>
+        <v>0.1050667985990469</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.1178336261780613</v>
+        <v>0.07144119999339159</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.07060214914777657</v>
+        <v>0.2060164720498378</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.1898630039861552</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0.1032781991950556</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>0.03837540276227961</v>
+        <v>0.122727141804749</v>
       </c>
     </row>
     <row r="32">
@@ -4547,127 +4357,121 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3439133026820231</v>
+        <v>0.331462157057006</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.09190730810511691</v>
+        <v>-0.05616116447448115</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.06750146825815444</v>
+        <v>-0.09400226932307439</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3757230188806523</v>
+        <v>0.350654571086417</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03449868169874706</v>
+        <v>0.1195387614919809</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1844765383748562</v>
+        <v>0.1745615199669257</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2907404575501136</v>
+        <v>0.2827406053497514</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1972950129487021</v>
+        <v>0.1773984518762639</v>
       </c>
       <c r="J32" t="n">
-        <v>0.09449153950382817</v>
+        <v>0.07936153659089726</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2246210052206676</v>
+        <v>0.1659777684867592</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2861938973894901</v>
+        <v>0.2583144528873773</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1371419536927619</v>
+        <v>0.1021285560271246</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2221385864403323</v>
+        <v>0.2004900644137052</v>
       </c>
       <c r="O32" t="n">
-        <v>0.2701997543063391</v>
+        <v>0.1945756905660148</v>
       </c>
       <c r="P32" t="n">
-        <v>0.4091503193430057</v>
+        <v>0.446823797377944</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3286759800831601</v>
+        <v>0.2029523926405602</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1418103199535216</v>
+        <v>0.1393091587220272</v>
       </c>
       <c r="S32" t="n">
-        <v>0.3216145993497225</v>
+        <v>0.3023345979019059</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1164611961144202</v>
+        <v>0.02495942286719988</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0999298554308421</v>
+        <v>0.2120084000277284</v>
       </c>
       <c r="V32" t="n">
-        <v>0.2296157352765185</v>
+        <v>0.2683715975385336</v>
       </c>
       <c r="W32" t="n">
-        <v>0.1699147373386356</v>
+        <v>0.1046656069987067</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4166059096016558</v>
+        <v>0.395582409911559</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1536659398334256</v>
+        <v>0.06487082930825888</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.3261762763649477</v>
+        <v>0.2513561072927461</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.08596801057720173</v>
+        <v>0.08455107195995468</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.1560499028445723</v>
+        <v>0.08927976995781654</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.1183169576764404</v>
+        <v>0.09060742333545972</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.3480315181923017</v>
+        <v>0.2802952248483591</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.3702541710583783</v>
+        <v>0.3101047172729142</v>
       </c>
       <c r="AF32" t="n">
         <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.1778690881694791</v>
+        <v>0.09445802587573907</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.08442321853091968</v>
+        <v>0.1563043735247157</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.05836343858263685</v>
+        <v>0.03606267550602261</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.05850219923028681</v>
+        <v>0.2381942122225426</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.2621669051506607</v>
+        <v>0.01477784216704423</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.1023642699023822</v>
+        <v>0.04388104231195038</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.03804217230415551</v>
+        <v>0.06852064322944416</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.1310907232785139</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0.07198972150676308</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>0.03640236277069069</v>
+        <v>0.06698048552555387</v>
       </c>
     </row>
     <row r="33">
@@ -4677,127 +4481,121 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3871121281918561</v>
+        <v>0.2964163457379713</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1136608169840752</v>
+        <v>-0.09633449059358661</v>
       </c>
       <c r="D33" t="n">
-        <v>0.004281164580124034</v>
+        <v>-0.007399698122016132</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3501523121612026</v>
+        <v>0.2888172129106112</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07016691551035248</v>
+        <v>0.1339646923067738</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2267522630117622</v>
+        <v>0.3038486896874702</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3390533695613862</v>
+        <v>0.2790690044859696</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2031076764550954</v>
+        <v>0.1345985130357963</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2113038490903359</v>
+        <v>0.1897471709690076</v>
       </c>
       <c r="K33" t="n">
-        <v>0.242410776658916</v>
+        <v>0.2308007225992965</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3543387981573434</v>
+        <v>0.2485704008502012</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1716279488948174</v>
+        <v>0.2579628946895536</v>
       </c>
       <c r="N33" t="n">
-        <v>0.2756978551785675</v>
+        <v>0.1655208049367407</v>
       </c>
       <c r="O33" t="n">
-        <v>0.3197507931136282</v>
+        <v>0.2676101697433076</v>
       </c>
       <c r="P33" t="n">
-        <v>0.3651928372186091</v>
+        <v>0.2532552234219933</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.33152036105278</v>
+        <v>0.130152650194454</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2721413082796449</v>
+        <v>0.1944391569863464</v>
       </c>
       <c r="S33" t="n">
-        <v>0.312923047911035</v>
+        <v>0.2226295091224629</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1278746295806069</v>
+        <v>0.03808921412490812</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05740998246001421</v>
+        <v>0.01981392274801285</v>
       </c>
       <c r="V33" t="n">
-        <v>0.254429088512062</v>
+        <v>0.1995391960931953</v>
       </c>
       <c r="W33" t="n">
-        <v>0.2081804145529595</v>
+        <v>0.1490762973414634</v>
       </c>
       <c r="X33" t="n">
-        <v>0.3441460945460362</v>
+        <v>0.255787783935876</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.173566387941971</v>
+        <v>0.1106479888246795</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.3136853837103029</v>
+        <v>0.2359461135531573</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.1513083669889707</v>
+        <v>0.209571652646572</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.1550413617543447</v>
+        <v>0.1592918850465077</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1998538241767547</v>
+        <v>0.2318202080321494</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.3258509096298995</v>
+        <v>0.1671009807994411</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.2225526099184391</v>
+        <v>0.1989626527511565</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.1778690881694791</v>
+        <v>0.09445802587573907</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.1131606025952017</v>
+        <v>0.2247517877798279</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.1260392344570697</v>
+        <v>0.04152638827235704</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.06850684544691504</v>
+        <v>0.1913645231464837</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.2572540892330136</v>
+        <v>0.4409324923892646</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.3489495456071046</v>
+        <v>0.04528455835066292</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.1009629150347644</v>
+        <v>0.1453419057293841</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.3256247594652509</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0.07487906320350549</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>0.01502150840132292</v>
+        <v>0.08539872464894548</v>
       </c>
     </row>
     <row r="34">
@@ -4807,1166 +4605,864 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2670280659839208</v>
+        <v>0.5134222335268178</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.09784618222637889</v>
+        <v>-0.1826118931658109</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01673451791153466</v>
+        <v>-0.02796018478931569</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2180252045686286</v>
+        <v>0.5127254518974536</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08151816572263244</v>
+        <v>0.1903445909004318</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1569891362608178</v>
+        <v>0.3633204746988037</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1757037897464527</v>
+        <v>0.3901380378210231</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1416100628619479</v>
+        <v>0.3177553197524482</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1948924819676769</v>
+        <v>0.3006388747245929</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2001207801727057</v>
+        <v>0.4602613125311341</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2091647381277214</v>
+        <v>0.444547165706399</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1416022680333665</v>
+        <v>0.3606858136967467</v>
       </c>
       <c r="N34" t="n">
-        <v>0.147258530754949</v>
+        <v>0.263818273310743</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2120093030154266</v>
+        <v>0.4535090458066762</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2102228325008536</v>
+        <v>0.3799403041036551</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1946598216168995</v>
+        <v>0.3184302615623668</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1667974841641403</v>
+        <v>0.2941363769023036</v>
       </c>
       <c r="S34" t="n">
-        <v>0.2063685202339188</v>
+        <v>0.4091413361074556</v>
       </c>
       <c r="T34" t="n">
-        <v>0.08787822136830532</v>
+        <v>0.1088090863281371</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03987780649991424</v>
+        <v>0.09863172333570405</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1526736203514802</v>
+        <v>0.4248483027299186</v>
       </c>
       <c r="W34" t="n">
-        <v>0.1258234112237837</v>
+        <v>0.3250514401437945</v>
       </c>
       <c r="X34" t="n">
-        <v>0.2161518828231494</v>
+        <v>0.4445557279710041</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1189905813399924</v>
+        <v>0.2954691430002583</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.1834412282213079</v>
+        <v>0.3602633419923747</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.1293938699057115</v>
+        <v>0.2695286897657285</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.1432903548848101</v>
+        <v>0.3034898582929833</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1817270044285197</v>
+        <v>0.3711665854645264</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.1412230637567486</v>
+        <v>0.3081884332508889</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.1313029899141373</v>
+        <v>0.3114449033047714</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.08442321853091968</v>
+        <v>0.1563043735247157</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.1131606025952017</v>
+        <v>0.2247517877798279</v>
       </c>
       <c r="AH34" t="n">
         <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.08645621787771454</v>
+        <v>0.04156777300867315</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.02365369150253215</v>
+        <v>0.331074591264638</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.1803365789995074</v>
+        <v>0.1580712144210113</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.0481304641258009</v>
+        <v>0.05216182160107253</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.04317031876434179</v>
+        <v>0.2668476763985625</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.07963245092782673</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0.05379409135196112</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0.008106165024461156</v>
+        <v>0.1198921588905976</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2625479622744967</v>
+        <v>0.06603877406402733</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0721203663349238</v>
+        <v>-0.02844063346631198</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03750523699287009</v>
+        <v>-0.05090021371985585</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2300629119043807</v>
+        <v>0.06413352043247306</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05280453453498042</v>
+        <v>0.008992962481485895</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1191955291079128</v>
+        <v>0.03149023804135338</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2187392169398081</v>
+        <v>0.05387036283502963</v>
       </c>
       <c r="I35" t="n">
-        <v>0.09240382551830423</v>
+        <v>0.05681580044211163</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1034940662009014</v>
+        <v>0.03510516203459364</v>
       </c>
       <c r="K35" t="n">
-        <v>0.17178507218659</v>
+        <v>0.02291021883336491</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2318167580687966</v>
+        <v>0.06047502732561887</v>
       </c>
       <c r="M35" t="n">
-        <v>0.08675043314059272</v>
+        <v>0.01963566370240034</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1934858757086662</v>
+        <v>0.03979092611001842</v>
       </c>
       <c r="O35" t="n">
-        <v>0.204910339628336</v>
+        <v>0.0750153991115116</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2290852995057709</v>
+        <v>0.05520837832897276</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.2102868750291531</v>
+        <v>0.04299422288095973</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2142506435632252</v>
+        <v>0.05985585298905814</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2265881933555304</v>
+        <v>0.09531675978628966</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0811576012408933</v>
+        <v>0.1438557037000706</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02545860758081417</v>
+        <v>0.01980071040203334</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1579639624686044</v>
+        <v>0.06354617644106973</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1423470917614997</v>
+        <v>0.01754030150131032</v>
       </c>
       <c r="X35" t="n">
-        <v>0.2189316075956567</v>
+        <v>0.05553328587174566</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1877691293622874</v>
+        <v>0.009623438589721783</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.1925212164887768</v>
+        <v>0.05122474553902227</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.09640400152496696</v>
+        <v>-0.004803193447564288</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.1201504124178126</v>
+        <v>0.01557583180586354</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1367782212458685</v>
+        <v>0.01028411698071837</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.132247309253429</v>
+        <v>0.04493877734483702</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.1260350404017276</v>
+        <v>0.04538817844942588</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.05836343858263685</v>
+        <v>0.03606267550602261</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.1260392344570697</v>
+        <v>0.04152638827235704</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.08645621787771454</v>
+        <v>0.04156777300867315</v>
       </c>
       <c r="AI35" t="n">
         <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.009199589137779372</v>
+        <v>0.03413937653084748</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.135562037841817</v>
+        <v>0.03084136651947355</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.05327912666667545</v>
+        <v>-0.002474554791913082</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.08425066192304027</v>
+        <v>0.02312670893346679</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.09957917426305071</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>0.08029521032476418</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>0.004199545429937249</v>
+        <v>0.03688444654763832</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.09491478229863558</v>
+        <v>0.5898059231866222</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03282307697499023</v>
+        <v>-0.2376387457761696</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.008908360559891372</v>
+        <v>-0.03048181891804735</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08470165117510518</v>
+        <v>0.5973863848063847</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003413379671977896</v>
+        <v>0.2515246763475599</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04149588336644561</v>
+        <v>0.4401431157057804</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06251618718382199</v>
+        <v>0.4955464481419944</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0573966672720978</v>
+        <v>0.3208666514313259</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05192031312218677</v>
+        <v>0.2470895773741072</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07729693393111316</v>
+        <v>0.5679771314713913</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06109730433356204</v>
+        <v>0.4923106859951979</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04681784976622616</v>
+        <v>0.5462619116830143</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0509588706617617</v>
+        <v>0.3907994968698751</v>
       </c>
       <c r="O36" t="n">
-        <v>0.08142509524890251</v>
+        <v>0.5514022917607245</v>
       </c>
       <c r="P36" t="n">
-        <v>0.09987859184481582</v>
+        <v>0.4703525715136004</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.09345060244361769</v>
+        <v>0.2604121340560239</v>
       </c>
       <c r="R36" t="n">
-        <v>0.06044205338732848</v>
+        <v>0.3963974946509072</v>
       </c>
       <c r="S36" t="n">
-        <v>0.09137649965587233</v>
+        <v>0.3939770633904045</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1638180625689386</v>
+        <v>0.1145242239537068</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006230136740658612</v>
+        <v>0.3041693658687787</v>
       </c>
       <c r="V36" t="n">
-        <v>0.04633149255582898</v>
+        <v>0.500104161717194</v>
       </c>
       <c r="W36" t="n">
-        <v>0.05363653545853385</v>
+        <v>0.2948971441195445</v>
       </c>
       <c r="X36" t="n">
-        <v>0.08378116742478342</v>
+        <v>0.5300347496313066</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.05433682727095179</v>
+        <v>0.274207790492785</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.06453636630318578</v>
+        <v>0.4705971519289042</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.02780977460340543</v>
+        <v>0.4446434213029014</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0459440435650371</v>
+        <v>0.3296937399491076</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.04653282555884794</v>
+        <v>0.4777074917321861</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0402704871698333</v>
+        <v>0.3141676537257987</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.06778950277404767</v>
+        <v>0.334423215136059</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.05850219923028681</v>
+        <v>0.2381942122225426</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.06850684544691504</v>
+        <v>0.1913645231464837</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.02365369150253215</v>
+        <v>0.331074591264638</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.009199589137779372</v>
+        <v>0.03413937653084748</v>
       </c>
       <c r="AJ36" t="n">
         <v>1</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.07433872090641516</v>
+        <v>0.09847098061281385</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.01598793967106665</v>
+        <v>0.1138076794250825</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.01260013982358557</v>
+        <v>0.2884995633006507</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.04046961087561054</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0.01779540814348339</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>0.006463301784953626</v>
+        <v>0.09079338380723234</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6336240765014683</v>
+        <v>0.1420054396038568</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2402177952778971</v>
+        <v>-0.0955793509386092</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01576922191211386</v>
+        <v>0.02291312971617071</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5730042566053775</v>
+        <v>0.1004994909608842</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1695609876999908</v>
+        <v>0.05034680164414588</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4322597029969023</v>
+        <v>0.2194968378150567</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4506460230523104</v>
+        <v>0.09886166748280402</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3163653545606173</v>
+        <v>0.08132876106941524</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2571464929617518</v>
+        <v>0.0865719063380391</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5644478453193914</v>
+        <v>0.1551558838550383</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5531951902971637</v>
+        <v>0.04642390569526964</v>
       </c>
       <c r="M37" t="n">
-        <v>0.5776067129433133</v>
+        <v>0.1929497864071289</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3795215337446119</v>
+        <v>0.07047028058877033</v>
       </c>
       <c r="O37" t="n">
-        <v>0.5556713881983633</v>
+        <v>0.09866109026526801</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5220165399314524</v>
+        <v>0.1085901552402386</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4413713740860576</v>
+        <v>0.08819692462009214</v>
       </c>
       <c r="R37" t="n">
-        <v>0.55208962673049</v>
+        <v>0.03806728224105613</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4032167679493509</v>
+        <v>0.09681648023110963</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2278730068912942</v>
+        <v>0.002301328080873551</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2931264287402547</v>
+        <v>0.02683949273181783</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4739173278951123</v>
+        <v>0.08102891033241551</v>
       </c>
       <c r="W37" t="n">
-        <v>0.3229147803860757</v>
+        <v>0.1355591117668471</v>
       </c>
       <c r="X37" t="n">
-        <v>0.5701932669157337</v>
+        <v>0.09824467713277438</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2997246805654444</v>
+        <v>0.1419443276887668</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.5337563798445815</v>
+        <v>0.09136014203979551</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.5353212864549188</v>
+        <v>0.2083312105790656</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.4233799367970307</v>
+        <v>0.1092964241892113</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.6002792741359285</v>
+        <v>0.2002839214410481</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.3416023071861777</v>
+        <v>0.09737728506362792</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.336079632431718</v>
+        <v>0.1050667985990469</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.2621669051506607</v>
+        <v>0.01477784216704423</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.2572540892330136</v>
+        <v>0.4409324923892646</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.1803365789995074</v>
+        <v>0.1580712144210113</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.135562037841817</v>
+        <v>0.03084136651947355</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.07433872090641516</v>
+        <v>0.09847098061281385</v>
       </c>
       <c r="AK37" t="n">
         <v>1</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.08245951286833264</v>
+        <v>-0.01644341502858209</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.1312511335948982</v>
+        <v>0.08796653490896844</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.2114948916959018</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>0.115928129656902</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>0.02784730478670343</v>
+        <v>0.03739241583339219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1607706905418531</v>
+        <v>0.1741848120114933</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.06926579416599275</v>
+        <v>-0.0595215911230989</v>
       </c>
       <c r="D38" t="n">
-        <v>0.007650729232497089</v>
+        <v>0.04706202457207712</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1523531428722149</v>
+        <v>0.1610976763735534</v>
       </c>
       <c r="F38" t="n">
-        <v>0.001018576620152218</v>
+        <v>0.1049611871484414</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0890698490094866</v>
+        <v>0.09769143963147824</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1787497901160016</v>
+        <v>0.1453450163854876</v>
       </c>
       <c r="I38" t="n">
-        <v>0.09497335330485786</v>
+        <v>0.03207247389799053</v>
       </c>
       <c r="J38" t="n">
-        <v>0.08514035054199613</v>
+        <v>0.08665173660322655</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1035898712267911</v>
+        <v>0.1144910547898779</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1340056169518658</v>
+        <v>0.1287366984208213</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06684124748741839</v>
+        <v>0.121921439585248</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1217826192604192</v>
+        <v>0.1243645309092468</v>
       </c>
       <c r="O38" t="n">
-        <v>0.1249158798093516</v>
+        <v>0.1701475976775624</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1749286789562949</v>
+        <v>0.07670250386257073</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1556074730161703</v>
+        <v>0.06335807267069359</v>
       </c>
       <c r="R38" t="n">
-        <v>0.06441001392428322</v>
+        <v>0.1512883433976491</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1313682182650264</v>
+        <v>0.07775964878955274</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04254404927660812</v>
+        <v>0.08764742063605427</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03121637951509421</v>
+        <v>0.08825141332969828</v>
       </c>
       <c r="V38" t="n">
-        <v>0.09922530488087987</v>
+        <v>0.08785865281919501</v>
       </c>
       <c r="W38" t="n">
-        <v>0.07571665476566339</v>
+        <v>0.04224208735752347</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1655606448200238</v>
+        <v>0.1088302098661675</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.08116234558075784</v>
+        <v>0.09888749275309457</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.154597227440618</v>
+        <v>0.1248013487987503</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.06093613227962826</v>
+        <v>0.1225059018768529</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.06028991847865944</v>
+        <v>0.05303189126880027</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.07505559216781123</v>
+        <v>0.141877507197557</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.1911328827701924</v>
+        <v>0.06705482017928036</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.1178336261780613</v>
+        <v>0.07144119999339159</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.1023642699023822</v>
+        <v>0.04388104231195038</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.3489495456071046</v>
+        <v>0.04528455835066292</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.0481304641258009</v>
+        <v>0.05216182160107253</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.05327912666667545</v>
+        <v>-0.002474554791913082</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.01598793967106665</v>
+        <v>0.1138076794250825</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.08245951286833264</v>
+        <v>-0.01644341502858209</v>
       </c>
       <c r="AL38" t="n">
         <v>1</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.02832645439792051</v>
+        <v>0.0512842658464342</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.1447029631541717</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>0.02127303555241358</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>0.008491404635120312</v>
+        <v>0.009763445762594667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2356331366861002</v>
+        <v>0.4444061057133261</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1077299549166028</v>
+        <v>-0.1709225569744989</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03723075235751651</v>
+        <v>0.02888401927358324</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1666995521835335</v>
+        <v>0.4496200144334027</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1001178260034648</v>
+        <v>0.1107752245149972</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1145365684183126</v>
+        <v>0.2146811016076186</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1537646745672369</v>
+        <v>0.361918967238903</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05876963413655635</v>
+        <v>0.2082293271111027</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06940587800214619</v>
+        <v>0.2338753097467948</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1235775412846675</v>
+        <v>0.3094379771983295</v>
       </c>
       <c r="L39" t="n">
-        <v>0.193914295608158</v>
+        <v>0.3971282253788027</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09861048183999957</v>
+        <v>0.2338370619818252</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1071108425615117</v>
+        <v>0.1995043688931727</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1666369708176314</v>
+        <v>0.3847477279250339</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1352401199419442</v>
+        <v>0.300496973647722</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.1196349784195048</v>
+        <v>0.1957878945944661</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1844928038653916</v>
+        <v>0.2064554671977742</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1342166946807552</v>
+        <v>0.2719332484231462</v>
       </c>
       <c r="T39" t="n">
-        <v>0.06948783962351246</v>
+        <v>0.09253915557599664</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05918784403836209</v>
+        <v>0.05686445477081636</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1089552832162613</v>
+        <v>0.2889279823219066</v>
       </c>
       <c r="W39" t="n">
-        <v>0.08353091047313557</v>
+        <v>0.2421019285609754</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1477644981738858</v>
+        <v>0.3830817088937507</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1023316034352857</v>
+        <v>0.2458471152984849</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.1571456949043384</v>
+        <v>0.2773315461463233</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.1122974315054779</v>
+        <v>0.2003314373707476</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0766368429987057</v>
+        <v>0.1836081336926772</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.1358344038043064</v>
+        <v>0.2653563806915369</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.1143292962457663</v>
+        <v>0.2390197504501207</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.07060214914777657</v>
+        <v>0.2060164720498378</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.03804217230415551</v>
+        <v>0.06852064322944416</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.1009629150347644</v>
+        <v>0.1453419057293841</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.04317031876434179</v>
+        <v>0.2668476763985625</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.08425066192304027</v>
+        <v>0.02312670893346679</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.01260013982358557</v>
+        <v>0.2884995633006507</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.1312511335948982</v>
+        <v>0.08796653490896844</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.02832645439792051</v>
+        <v>0.0512842658464342</v>
       </c>
       <c r="AM39" t="n">
         <v>1</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.07654049831648858</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0.02961455915809324</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>0.01076342590015485</v>
+        <v>0.1370228243767459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3342397864347956</v>
+        <v>0.2276136865154676</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1090124109907939</v>
+        <v>-0.04895286239536816</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01365559585191875</v>
+        <v>0.003313341897291761</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2879472771429398</v>
+        <v>0.2182720823996992</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04978423797971553</v>
+        <v>0.041823499388154</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825446389274687</v>
+        <v>0.09505971439176573</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2969323307666187</v>
+        <v>0.1880667657729492</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1821563085737443</v>
+        <v>0.2615993381052021</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1787223843281128</v>
+        <v>0.1268560866004126</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2158434851599327</v>
+        <v>0.07243990989619205</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2981154835032995</v>
+        <v>0.2361985567443909</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1256212403339415</v>
+        <v>0.04549796598409351</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2244225554432578</v>
+        <v>0.09284204588274897</v>
       </c>
       <c r="O40" t="n">
-        <v>0.2793643647519313</v>
+        <v>0.1448239330156614</v>
       </c>
       <c r="P40" t="n">
-        <v>0.3108729821799831</v>
+        <v>0.1585561344897854</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.297680726694049</v>
+        <v>0.1293376693169009</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2327181326095765</v>
+        <v>0.1067051253612257</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2704047127517294</v>
+        <v>0.1562835654735659</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1096439059209677</v>
+        <v>0.007179235294090502</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04347302979512339</v>
+        <v>0.02091536666363062</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1932511601184467</v>
+        <v>0.1709409975317735</v>
       </c>
       <c r="W40" t="n">
-        <v>0.1883748111748701</v>
+        <v>0.1075861857615065</v>
       </c>
       <c r="X40" t="n">
-        <v>0.291430757350657</v>
+        <v>0.2374266915212941</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.1727412773734697</v>
+        <v>0.07213447750044721</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.256253160404368</v>
+        <v>0.1956226406700874</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.1207991719155116</v>
+        <v>-0.003265881271726435</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.1312896334821869</v>
+        <v>-0.007495443823329361</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1653601904544982</v>
+        <v>0.04961697522622628</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.2957892448213874</v>
+        <v>0.197276562942084</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.1898630039861552</v>
+        <v>0.122727141804749</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.1310907232785139</v>
+        <v>0.06698048552555387</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.3256247594652509</v>
+        <v>0.08539872464894548</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.07963245092782673</v>
+        <v>0.1198921588905976</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.09957917426305071</v>
+        <v>0.03688444654763832</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.04046961087561054</v>
+        <v>0.09079338380723234</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.2114948916959018</v>
+        <v>0.03739241583339219</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.1447029631541717</v>
+        <v>0.009763445762594667</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.07654049831648858</v>
+        <v>0.1370228243767459</v>
       </c>
       <c r="AN40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>0.07600895025930511</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>0.02951676208611953</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.1895525589632991</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.05085899607033193</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-0.008187088472309275</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.1837775945362656</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.01723376211082821</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.1140101865831221</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.1407355563305382</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.1111193085828055</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.07466150091650858</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.1110354265145084</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.1761457520059702</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.03461399708917496</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.1414198230542681</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.1324111397952447</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.1696902046174352</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.1684825357967732</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.1152010455859848</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.1553682437588823</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.05549490372804756</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.01757232454017999</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0.1180363373418025</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0.1114649702542937</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.1768022049234476</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0.1386275821476323</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.1389295867104294</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.05241460613139561</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0.07154723185721321</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.07485856478863816</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.1724476856892095</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.1032781991950556</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0.07198972150676308</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0.07487906320350549</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0.05379409135196112</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0.08029521032476418</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0.01779540814348339</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0.115928129656902</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0.02127303555241358</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0.02961455915809324</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0.07600895025930511</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0.01469392752710641</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.04927833655730189</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-0.008647317581658567</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-0.01300196921527161</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.01397766193407266</v>
-      </c>
-      <c r="F42" t="n">
-        <v>-0.003409740780517573</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.01535381199754408</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.02006072285004626</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.0619822654215775</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.01724769073003614</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.02085765890789935</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.03889327102353056</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.005747390236296391</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.01776075800030927</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.02318443952371363</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.05033519886138167</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.05546394146983805</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.01059114873185417</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.06073779290303935</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.001560560658874549</v>
-      </c>
-      <c r="U42" t="n">
-        <v>-0.001063856560668769</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.01584628481869564</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0.02301283822855675</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.03617706905119519</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0.0249391073996414</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0.02285897206650207</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>-0.002109756973338825</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0.01088357292254054</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0.0002041511905115363</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.1636828263874391</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0.03837540276227961</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0.03640236277069069</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0.01502150840132292</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0.008106165024461156</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0.004199545429937249</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0.006463301784953626</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0.02784730478670343</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0.008491404635120312</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0.01076342590015485</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0.02951676208611953</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0.01469392752710641</v>
-      </c>
-      <c r="AP42" t="n">
         <v>1</v>
       </c>
     </row>
